--- a/data/_metadata.xlsx
+++ b/data/_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksnyder/Sites/public-domain-books/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9838CF-A65D-7B4B-A149-5BC971F7B705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EFC843-0058-CF48-801A-8203B7696570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11860" yWindow="520" windowWidth="29500" windowHeight="25720" xr2:uid="{948352A4-4516-F447-8F65-D2A52CDFF619}"/>
   </bookViews>
@@ -1385,9 +1385,6 @@
     <t>Enos</t>
   </si>
   <si>
-    <t>Jerom</t>
-  </si>
-  <si>
     <t>Omni</t>
   </si>
   <si>
@@ -1523,9 +1520,6 @@
     <t>['Wisdom of Solomon','Wis','WIS']</t>
   </si>
   <si>
-    <t>['Canticle of Canticles','Song','SNG']</t>
-  </si>
-  <si>
     <t>['Qohelet','Eccl','ECC']</t>
   </si>
   <si>
@@ -1574,18 +1568,12 @@
     <t>Joseph Smith History</t>
   </si>
   <si>
-    <t>['JSH']</t>
-  </si>
-  <si>
     <t>JSH</t>
   </si>
   <si>
     <t>Joseph Smith Matthew</t>
   </si>
   <si>
-    <t>['JSM']</t>
-  </si>
-  <si>
     <t>JSM</t>
   </si>
   <si>
@@ -2100,6 +2088,18 @@
   </si>
   <si>
     <t>['Deut','DEU','The Fifth Book of Moses called Deuteronomy']</t>
+  </si>
+  <si>
+    <t>['Canticle of Canticles','Song','SNG',"Solomon's Song"]</t>
+  </si>
+  <si>
+    <t>Jarom</t>
+  </si>
+  <si>
+    <t>['JSM','Joseph Smith--Matthew']</t>
+  </si>
+  <si>
+    <t>['JSH', 'Joseph Smith--History']</t>
   </si>
 </sst>
 </file>
@@ -2513,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2457BBF2-065A-6B4B-8450-DD145766C676}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2543,19 +2543,19 @@
         <v>437</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>435</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2572,7 +2572,7 @@
         <v>394</v>
       </c>
       <c r="E2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>404</v>
@@ -2582,7 +2582,7 @@
         <v>['Gen','GEN']</v>
       </c>
       <c r="H2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I2" t="str">
         <f>"{ name: """&amp;A2&amp;""", osisID: '"&amp;B2&amp;"', paratext: "&amp;IF(C2="","null","'"&amp;C2&amp;"'")&amp;", groups: "&amp;E2&amp;", aliases: "&amp;H2&amp;" },"</f>
@@ -2603,7 +2603,7 @@
         <v>394</v>
       </c>
       <c r="E3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>404</v>
@@ -2613,7 +2613,7 @@
         <v>['Exod','EXO']</v>
       </c>
       <c r="H3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I3" t="str">
         <f>"{ name: """&amp;A3&amp;""", osisID: '"&amp;B3&amp;"', paratext: "&amp;IF(C3="","null","'"&amp;C3&amp;"'")&amp;", groups: "&amp;E3&amp;", aliases: "&amp;H3&amp;" },"</f>
@@ -2634,7 +2634,7 @@
         <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>404</v>
@@ -2644,7 +2644,7 @@
         <v>['Lev','LEV']</v>
       </c>
       <c r="H4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I4" t="str">
         <f>"{ name: """&amp;A4&amp;""", osisID: '"&amp;B4&amp;"', paratext: "&amp;IF(C4="","null","'"&amp;C4&amp;"'")&amp;", groups: "&amp;E4&amp;", aliases: "&amp;H4&amp;" },"</f>
@@ -2665,7 +2665,7 @@
         <v>394</v>
       </c>
       <c r="E5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>404</v>
@@ -2675,7 +2675,7 @@
         <v>['Num','NUM']</v>
       </c>
       <c r="H5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="I5" t="str">
         <f>"{ name: """&amp;A5&amp;""", osisID: '"&amp;B5&amp;"', paratext: "&amp;IF(C5="","null","'"&amp;C5&amp;"'")&amp;", groups: "&amp;E5&amp;", aliases: "&amp;H5&amp;" },"</f>
@@ -2696,7 +2696,7 @@
         <v>394</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>404</v>
@@ -2706,7 +2706,7 @@
         <v>['Deut','DEU']</v>
       </c>
       <c r="H6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="I6" t="str">
         <f>"{ name: """&amp;A6&amp;""", osisID: '"&amp;B6&amp;"', paratext: "&amp;IF(C6="","null","'"&amp;C6&amp;"'")&amp;", groups: "&amp;E6&amp;", aliases: "&amp;H6&amp;" },"</f>
@@ -2727,7 +2727,7 @@
         <v>394</v>
       </c>
       <c r="E7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>404</v>
@@ -2737,7 +2737,7 @@
         <v>['Josh','JOS']</v>
       </c>
       <c r="H7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I7" t="str">
         <f>"{ name: """&amp;A7&amp;""", osisID: '"&amp;B7&amp;"', paratext: "&amp;IF(C7="","null","'"&amp;C7&amp;"'")&amp;", groups: "&amp;E7&amp;", aliases: "&amp;H7&amp;" },"</f>
@@ -2758,7 +2758,7 @@
         <v>394</v>
       </c>
       <c r="E8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>404</v>
@@ -2768,7 +2768,7 @@
         <v>['Judg','JDG']</v>
       </c>
       <c r="H8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="I8" t="str">
         <f>"{ name: """&amp;A8&amp;""", osisID: '"&amp;B8&amp;"', paratext: "&amp;IF(C8="","null","'"&amp;C8&amp;"'")&amp;", groups: "&amp;E8&amp;", aliases: "&amp;H8&amp;" },"</f>
@@ -2789,7 +2789,7 @@
         <v>394</v>
       </c>
       <c r="E9" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>404</v>
@@ -2799,7 +2799,7 @@
         <v>['Ruth','RUT']</v>
       </c>
       <c r="H9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I9" t="str">
         <f>"{ name: """&amp;A9&amp;""", osisID: '"&amp;B9&amp;"', paratext: "&amp;IF(C9="","null","'"&amp;C9&amp;"'")&amp;", groups: "&amp;E9&amp;", aliases: "&amp;H9&amp;" },"</f>
@@ -2820,7 +2820,7 @@
         <v>394</v>
       </c>
       <c r="E10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>404</v>
@@ -2830,7 +2830,7 @@
         <v>['1Sam','1SA']</v>
       </c>
       <c r="H10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I10" t="str">
         <f>"{ name: """&amp;A10&amp;""", osisID: '"&amp;B10&amp;"', paratext: "&amp;IF(C10="","null","'"&amp;C10&amp;"'")&amp;", groups: "&amp;E10&amp;", aliases: "&amp;H10&amp;" },"</f>
@@ -2851,7 +2851,7 @@
         <v>394</v>
       </c>
       <c r="E11" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>404</v>
@@ -2861,7 +2861,7 @@
         <v>['2Sam','2SA']</v>
       </c>
       <c r="H11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I11" t="str">
         <f>"{ name: """&amp;A11&amp;""", osisID: '"&amp;B11&amp;"', paratext: "&amp;IF(C11="","null","'"&amp;C11&amp;"'")&amp;", groups: "&amp;E11&amp;", aliases: "&amp;H11&amp;" },"</f>
@@ -2882,7 +2882,7 @@
         <v>394</v>
       </c>
       <c r="E12" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>404</v>
@@ -2892,7 +2892,7 @@
         <v>['1Kgs','1KI']</v>
       </c>
       <c r="H12" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I12" t="str">
         <f>"{ name: """&amp;A12&amp;""", osisID: '"&amp;B12&amp;"', paratext: "&amp;IF(C12="","null","'"&amp;C12&amp;"'")&amp;", groups: "&amp;E12&amp;", aliases: "&amp;H12&amp;" },"</f>
@@ -2913,7 +2913,7 @@
         <v>394</v>
       </c>
       <c r="E13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>404</v>
@@ -2923,7 +2923,7 @@
         <v>['2Kgs','2KI']</v>
       </c>
       <c r="H13" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I13" t="str">
         <f>"{ name: """&amp;A13&amp;""", osisID: '"&amp;B13&amp;"', paratext: "&amp;IF(C13="","null","'"&amp;C13&amp;"'")&amp;", groups: "&amp;E13&amp;", aliases: "&amp;H13&amp;" },"</f>
@@ -2944,7 +2944,7 @@
         <v>394</v>
       </c>
       <c r="E14" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>404</v>
@@ -2954,7 +2954,7 @@
         <v>['1Chr','1CH']</v>
       </c>
       <c r="H14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I14" t="str">
         <f>"{ name: """&amp;A14&amp;""", osisID: '"&amp;B14&amp;"', paratext: "&amp;IF(C14="","null","'"&amp;C14&amp;"'")&amp;", groups: "&amp;E14&amp;", aliases: "&amp;H14&amp;" },"</f>
@@ -2975,7 +2975,7 @@
         <v>394</v>
       </c>
       <c r="E15" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>404</v>
@@ -2985,7 +2985,7 @@
         <v>['2Chr','2CH']</v>
       </c>
       <c r="H15" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I15" t="str">
         <f>"{ name: """&amp;A15&amp;""", osisID: '"&amp;B15&amp;"', paratext: "&amp;IF(C15="","null","'"&amp;C15&amp;"'")&amp;", groups: "&amp;E15&amp;", aliases: "&amp;H15&amp;" },"</f>
@@ -3006,7 +3006,7 @@
         <v>394</v>
       </c>
       <c r="E16" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>404</v>
@@ -3016,7 +3016,7 @@
         <v>['Ezra','EZR']</v>
       </c>
       <c r="H16" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I16" t="str">
         <f>"{ name: """&amp;A16&amp;""", osisID: '"&amp;B16&amp;"', paratext: "&amp;IF(C16="","null","'"&amp;C16&amp;"'")&amp;", groups: "&amp;E16&amp;", aliases: "&amp;H16&amp;" },"</f>
@@ -3037,7 +3037,7 @@
         <v>394</v>
       </c>
       <c r="E17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>404</v>
@@ -3047,7 +3047,7 @@
         <v>['Neh','NEH']</v>
       </c>
       <c r="H17" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I17" t="str">
         <f>"{ name: """&amp;A17&amp;""", osisID: '"&amp;B17&amp;"', paratext: "&amp;IF(C17="","null","'"&amp;C17&amp;"'")&amp;", groups: "&amp;E17&amp;", aliases: "&amp;H17&amp;" },"</f>
@@ -3068,7 +3068,7 @@
         <v>394</v>
       </c>
       <c r="E18" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>404</v>
@@ -3078,7 +3078,7 @@
         <v>['Esth','EST']</v>
       </c>
       <c r="H18" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I18" t="str">
         <f>"{ name: """&amp;A18&amp;""", osisID: '"&amp;B18&amp;"', paratext: "&amp;IF(C18="","null","'"&amp;C18&amp;"'")&amp;", groups: "&amp;E18&amp;", aliases: "&amp;H18&amp;" },"</f>
@@ -3099,7 +3099,7 @@
         <v>394</v>
       </c>
       <c r="E19" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>404</v>
@@ -3109,7 +3109,7 @@
         <v>['Job','JOB']</v>
       </c>
       <c r="H19" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I19" t="str">
         <f>"{ name: """&amp;A19&amp;""", osisID: '"&amp;B19&amp;"', paratext: "&amp;IF(C19="","null","'"&amp;C19&amp;"'")&amp;", groups: "&amp;E19&amp;", aliases: "&amp;H19&amp;" },"</f>
@@ -3130,7 +3130,7 @@
         <v>394</v>
       </c>
       <c r="E20" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>404</v>
@@ -3140,7 +3140,7 @@
         <v>['Ps','PSA']</v>
       </c>
       <c r="H20" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I20" t="str">
         <f>"{ name: """&amp;A20&amp;""", osisID: '"&amp;B20&amp;"', paratext: "&amp;IF(C20="","null","'"&amp;C20&amp;"'")&amp;", groups: "&amp;E20&amp;", aliases: "&amp;H20&amp;" },"</f>
@@ -3161,7 +3161,7 @@
         <v>394</v>
       </c>
       <c r="E21" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>404</v>
@@ -3171,7 +3171,7 @@
         <v>['Prov','PRO']</v>
       </c>
       <c r="H21" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I21" t="str">
         <f>"{ name: """&amp;A21&amp;""", osisID: '"&amp;B21&amp;"', paratext: "&amp;IF(C21="","null","'"&amp;C21&amp;"'")&amp;", groups: "&amp;E21&amp;", aliases: "&amp;H21&amp;" },"</f>
@@ -3192,7 +3192,7 @@
         <v>394</v>
       </c>
       <c r="E22" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>404</v>
@@ -3202,7 +3202,7 @@
         <v>['Eccl','ECC']</v>
       </c>
       <c r="H22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I22" t="str">
         <f>"{ name: """&amp;A22&amp;""", osisID: '"&amp;B22&amp;"', paratext: "&amp;IF(C22="","null","'"&amp;C22&amp;"'")&amp;", groups: "&amp;E22&amp;", aliases: "&amp;H22&amp;" },"</f>
@@ -3223,7 +3223,7 @@
         <v>394</v>
       </c>
       <c r="E23" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>404</v>
@@ -3233,11 +3233,11 @@
         <v>['Song','SNG']</v>
       </c>
       <c r="H23" t="s">
-        <v>494</v>
+        <v>683</v>
       </c>
       <c r="I23" t="str">
         <f>"{ name: """&amp;A23&amp;""", osisID: '"&amp;B23&amp;"', paratext: "&amp;IF(C23="","null","'"&amp;C23&amp;"'")&amp;", groups: "&amp;E23&amp;", aliases: "&amp;H23&amp;" },"</f>
-        <v>{ name: "Song of Solomon", osisID: 'Song', paratext: 'SNG', groups: ['Old Testament', 'Bible'], aliases: ['Canticle of Canticles','Song','SNG'] },</v>
+        <v>{ name: "Song of Solomon", osisID: 'Song', paratext: 'SNG', groups: ['Old Testament', 'Bible'], aliases: ['Canticle of Canticles','Song','SNG',"Solomon's Song"] },</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3254,7 +3254,7 @@
         <v>394</v>
       </c>
       <c r="E24" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>404</v>
@@ -3264,7 +3264,7 @@
         <v>['Isa','ISA']</v>
       </c>
       <c r="H24" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I24" t="str">
         <f>"{ name: """&amp;A24&amp;""", osisID: '"&amp;B24&amp;"', paratext: "&amp;IF(C24="","null","'"&amp;C24&amp;"'")&amp;", groups: "&amp;E24&amp;", aliases: "&amp;H24&amp;" },"</f>
@@ -3285,7 +3285,7 @@
         <v>394</v>
       </c>
       <c r="E25" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>404</v>
@@ -3295,7 +3295,7 @@
         <v>['Jer','JER']</v>
       </c>
       <c r="H25" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I25" t="str">
         <f>"{ name: """&amp;A25&amp;""", osisID: '"&amp;B25&amp;"', paratext: "&amp;IF(C25="","null","'"&amp;C25&amp;"'")&amp;", groups: "&amp;E25&amp;", aliases: "&amp;H25&amp;" },"</f>
@@ -3316,7 +3316,7 @@
         <v>394</v>
       </c>
       <c r="E26" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>404</v>
@@ -3326,7 +3326,7 @@
         <v>['Lam','LAM']</v>
       </c>
       <c r="H26" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I26" t="str">
         <f>"{ name: """&amp;A26&amp;""", osisID: '"&amp;B26&amp;"', paratext: "&amp;IF(C26="","null","'"&amp;C26&amp;"'")&amp;", groups: "&amp;E26&amp;", aliases: "&amp;H26&amp;" },"</f>
@@ -3347,7 +3347,7 @@
         <v>394</v>
       </c>
       <c r="E27" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>404</v>
@@ -3357,7 +3357,7 @@
         <v>['Ezek','EZK']</v>
       </c>
       <c r="H27" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I27" t="str">
         <f>"{ name: """&amp;A27&amp;""", osisID: '"&amp;B27&amp;"', paratext: "&amp;IF(C27="","null","'"&amp;C27&amp;"'")&amp;", groups: "&amp;E27&amp;", aliases: "&amp;H27&amp;" },"</f>
@@ -3378,7 +3378,7 @@
         <v>394</v>
       </c>
       <c r="E28" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>404</v>
@@ -3388,7 +3388,7 @@
         <v>['Dan','DAN']</v>
       </c>
       <c r="H28" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="I28" t="str">
         <f>"{ name: """&amp;A28&amp;""", osisID: '"&amp;B28&amp;"', paratext: "&amp;IF(C28="","null","'"&amp;C28&amp;"'")&amp;", groups: "&amp;E28&amp;", aliases: "&amp;H28&amp;" },"</f>
@@ -3409,7 +3409,7 @@
         <v>394</v>
       </c>
       <c r="E29" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>404</v>
@@ -3419,7 +3419,7 @@
         <v>['Hos','HOS']</v>
       </c>
       <c r="H29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I29" t="str">
         <f>"{ name: """&amp;A29&amp;""", osisID: '"&amp;B29&amp;"', paratext: "&amp;IF(C29="","null","'"&amp;C29&amp;"'")&amp;", groups: "&amp;E29&amp;", aliases: "&amp;H29&amp;" },"</f>
@@ -3440,7 +3440,7 @@
         <v>394</v>
       </c>
       <c r="E30" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>404</v>
@@ -3450,7 +3450,7 @@
         <v>['Joel','JOL']</v>
       </c>
       <c r="H30" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I30" t="str">
         <f>"{ name: """&amp;A30&amp;""", osisID: '"&amp;B30&amp;"', paratext: "&amp;IF(C30="","null","'"&amp;C30&amp;"'")&amp;", groups: "&amp;E30&amp;", aliases: "&amp;H30&amp;" },"</f>
@@ -3471,7 +3471,7 @@
         <v>394</v>
       </c>
       <c r="E31" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>404</v>
@@ -3481,7 +3481,7 @@
         <v>['Amos','AMO']</v>
       </c>
       <c r="H31" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I31" t="str">
         <f>"{ name: """&amp;A31&amp;""", osisID: '"&amp;B31&amp;"', paratext: "&amp;IF(C31="","null","'"&amp;C31&amp;"'")&amp;", groups: "&amp;E31&amp;", aliases: "&amp;H31&amp;" },"</f>
@@ -3502,7 +3502,7 @@
         <v>394</v>
       </c>
       <c r="E32" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>404</v>
@@ -3512,7 +3512,7 @@
         <v>['Obad','OBA']</v>
       </c>
       <c r="H32" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I32" t="str">
         <f>"{ name: """&amp;A32&amp;""", osisID: '"&amp;B32&amp;"', paratext: "&amp;IF(C32="","null","'"&amp;C32&amp;"'")&amp;", groups: "&amp;E32&amp;", aliases: "&amp;H32&amp;" },"</f>
@@ -3533,7 +3533,7 @@
         <v>394</v>
       </c>
       <c r="E33" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>404</v>
@@ -3543,7 +3543,7 @@
         <v>['Jonah','JON']</v>
       </c>
       <c r="H33" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I33" t="str">
         <f>"{ name: """&amp;A33&amp;""", osisID: '"&amp;B33&amp;"', paratext: "&amp;IF(C33="","null","'"&amp;C33&amp;"'")&amp;", groups: "&amp;E33&amp;", aliases: "&amp;H33&amp;" },"</f>
@@ -3564,7 +3564,7 @@
         <v>394</v>
       </c>
       <c r="E34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>404</v>
@@ -3574,7 +3574,7 @@
         <v>['Mic','MIC']</v>
       </c>
       <c r="H34" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="I34" t="str">
         <f>"{ name: """&amp;A34&amp;""", osisID: '"&amp;B34&amp;"', paratext: "&amp;IF(C34="","null","'"&amp;C34&amp;"'")&amp;", groups: "&amp;E34&amp;", aliases: "&amp;H34&amp;" },"</f>
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="E35" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>404</v>
@@ -3605,7 +3605,7 @@
         <v>['Nah','NAM']</v>
       </c>
       <c r="H35" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="I35" t="str">
         <f>"{ name: """&amp;A35&amp;""", osisID: '"&amp;B35&amp;"', paratext: "&amp;IF(C35="","null","'"&amp;C35&amp;"'")&amp;", groups: "&amp;E35&amp;", aliases: "&amp;H35&amp;" },"</f>
@@ -3626,7 +3626,7 @@
         <v>394</v>
       </c>
       <c r="E36" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>404</v>
@@ -3636,7 +3636,7 @@
         <v>['Hab','HAB']</v>
       </c>
       <c r="H36" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I36" t="str">
         <f>"{ name: """&amp;A36&amp;""", osisID: '"&amp;B36&amp;"', paratext: "&amp;IF(C36="","null","'"&amp;C36&amp;"'")&amp;", groups: "&amp;E36&amp;", aliases: "&amp;H36&amp;" },"</f>
@@ -3657,7 +3657,7 @@
         <v>394</v>
       </c>
       <c r="E37" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>404</v>
@@ -3667,7 +3667,7 @@
         <v>['Zeph','ZEP']</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I37" t="str">
         <f>"{ name: """&amp;A37&amp;""", osisID: '"&amp;B37&amp;"', paratext: "&amp;IF(C37="","null","'"&amp;C37&amp;"'")&amp;", groups: "&amp;E37&amp;", aliases: "&amp;H37&amp;" },"</f>
@@ -3688,7 +3688,7 @@
         <v>394</v>
       </c>
       <c r="E38" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>404</v>
@@ -3698,7 +3698,7 @@
         <v>['Hag','HAG']</v>
       </c>
       <c r="H38" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="I38" t="str">
         <f>"{ name: """&amp;A38&amp;""", osisID: '"&amp;B38&amp;"', paratext: "&amp;IF(C38="","null","'"&amp;C38&amp;"'")&amp;", groups: "&amp;E38&amp;", aliases: "&amp;H38&amp;" },"</f>
@@ -3719,7 +3719,7 @@
         <v>394</v>
       </c>
       <c r="E39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>404</v>
@@ -3729,7 +3729,7 @@
         <v>['Zech','ZEC']</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I39" t="str">
         <f>"{ name: """&amp;A39&amp;""", osisID: '"&amp;B39&amp;"', paratext: "&amp;IF(C39="","null","'"&amp;C39&amp;"'")&amp;", groups: "&amp;E39&amp;", aliases: "&amp;H39&amp;" },"</f>
@@ -3750,7 +3750,7 @@
         <v>394</v>
       </c>
       <c r="E40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>404</v>
@@ -3760,7 +3760,7 @@
         <v>['Mal','MAL']</v>
       </c>
       <c r="H40" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I40" t="str">
         <f>"{ name: """&amp;A40&amp;""", osisID: '"&amp;B40&amp;"', paratext: "&amp;IF(C40="","null","'"&amp;C40&amp;"'")&amp;", groups: "&amp;E40&amp;", aliases: "&amp;H40&amp;" },"</f>
@@ -3781,7 +3781,7 @@
         <v>395</v>
       </c>
       <c r="E41" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>404</v>
@@ -3791,7 +3791,7 @@
         <v>['Matt','MAT']</v>
       </c>
       <c r="H41" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I41" t="str">
         <f>"{ name: """&amp;A41&amp;""", osisID: '"&amp;B41&amp;"', paratext: "&amp;IF(C41="","null","'"&amp;C41&amp;"'")&amp;", groups: "&amp;E41&amp;", aliases: "&amp;H41&amp;" },"</f>
@@ -3812,7 +3812,7 @@
         <v>395</v>
       </c>
       <c r="E42" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>404</v>
@@ -3822,7 +3822,7 @@
         <v>['Mark','MRK']</v>
       </c>
       <c r="H42" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I42" t="str">
         <f>"{ name: """&amp;A42&amp;""", osisID: '"&amp;B42&amp;"', paratext: "&amp;IF(C42="","null","'"&amp;C42&amp;"'")&amp;", groups: "&amp;E42&amp;", aliases: "&amp;H42&amp;" },"</f>
@@ -3843,7 +3843,7 @@
         <v>395</v>
       </c>
       <c r="E43" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>404</v>
@@ -3853,7 +3853,7 @@
         <v>['Luke','LUK']</v>
       </c>
       <c r="H43" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I43" t="str">
         <f>"{ name: """&amp;A43&amp;""", osisID: '"&amp;B43&amp;"', paratext: "&amp;IF(C43="","null","'"&amp;C43&amp;"'")&amp;", groups: "&amp;E43&amp;", aliases: "&amp;H43&amp;" },"</f>
@@ -3874,7 +3874,7 @@
         <v>395</v>
       </c>
       <c r="E44" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>404</v>
@@ -3884,7 +3884,7 @@
         <v>['John','JHN']</v>
       </c>
       <c r="H44" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I44" t="str">
         <f>"{ name: """&amp;A44&amp;""", osisID: '"&amp;B44&amp;"', paratext: "&amp;IF(C44="","null","'"&amp;C44&amp;"'")&amp;", groups: "&amp;E44&amp;", aliases: "&amp;H44&amp;" },"</f>
@@ -3905,7 +3905,7 @@
         <v>395</v>
       </c>
       <c r="E45" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>404</v>
@@ -3915,7 +3915,7 @@
         <v>['Acts','ACT']</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I45" t="str">
         <f>"{ name: """&amp;A45&amp;""", osisID: '"&amp;B45&amp;"', paratext: "&amp;IF(C45="","null","'"&amp;C45&amp;"'")&amp;", groups: "&amp;E45&amp;", aliases: "&amp;H45&amp;" },"</f>
@@ -3936,7 +3936,7 @@
         <v>395</v>
       </c>
       <c r="E46" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>404</v>
@@ -3946,7 +3946,7 @@
         <v>['Rom','ROM']</v>
       </c>
       <c r="H46" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I46" t="str">
         <f>"{ name: """&amp;A46&amp;""", osisID: '"&amp;B46&amp;"', paratext: "&amp;IF(C46="","null","'"&amp;C46&amp;"'")&amp;", groups: "&amp;E46&amp;", aliases: "&amp;H46&amp;" },"</f>
@@ -3967,7 +3967,7 @@
         <v>395</v>
       </c>
       <c r="E47" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>404</v>
@@ -3977,7 +3977,7 @@
         <v>['1Cor','1CO']</v>
       </c>
       <c r="H47" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I47" t="str">
         <f>"{ name: """&amp;A47&amp;""", osisID: '"&amp;B47&amp;"', paratext: "&amp;IF(C47="","null","'"&amp;C47&amp;"'")&amp;", groups: "&amp;E47&amp;", aliases: "&amp;H47&amp;" },"</f>
@@ -3998,7 +3998,7 @@
         <v>395</v>
       </c>
       <c r="E48" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>404</v>
@@ -4008,7 +4008,7 @@
         <v>['2Cor','2CO']</v>
       </c>
       <c r="H48" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I48" t="str">
         <f>"{ name: """&amp;A48&amp;""", osisID: '"&amp;B48&amp;"', paratext: "&amp;IF(C48="","null","'"&amp;C48&amp;"'")&amp;", groups: "&amp;E48&amp;", aliases: "&amp;H48&amp;" },"</f>
@@ -4029,7 +4029,7 @@
         <v>395</v>
       </c>
       <c r="E49" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>404</v>
@@ -4039,7 +4039,7 @@
         <v>['Gal','GAL']</v>
       </c>
       <c r="H49" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I49" t="str">
         <f>"{ name: """&amp;A49&amp;""", osisID: '"&amp;B49&amp;"', paratext: "&amp;IF(C49="","null","'"&amp;C49&amp;"'")&amp;", groups: "&amp;E49&amp;", aliases: "&amp;H49&amp;" },"</f>
@@ -4060,7 +4060,7 @@
         <v>395</v>
       </c>
       <c r="E50" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>404</v>
@@ -4070,7 +4070,7 @@
         <v>['Eph','EPH']</v>
       </c>
       <c r="H50" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I50" t="str">
         <f>"{ name: """&amp;A50&amp;""", osisID: '"&amp;B50&amp;"', paratext: "&amp;IF(C50="","null","'"&amp;C50&amp;"'")&amp;", groups: "&amp;E50&amp;", aliases: "&amp;H50&amp;" },"</f>
@@ -4091,7 +4091,7 @@
         <v>395</v>
       </c>
       <c r="E51" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>404</v>
@@ -4101,7 +4101,7 @@
         <v>['Phil','PHP']</v>
       </c>
       <c r="H51" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I51" t="str">
         <f>"{ name: """&amp;A51&amp;""", osisID: '"&amp;B51&amp;"', paratext: "&amp;IF(C51="","null","'"&amp;C51&amp;"'")&amp;", groups: "&amp;E51&amp;", aliases: "&amp;H51&amp;" },"</f>
@@ -4122,7 +4122,7 @@
         <v>395</v>
       </c>
       <c r="E52" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>404</v>
@@ -4132,7 +4132,7 @@
         <v>['Col','COL']</v>
       </c>
       <c r="H52" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I52" t="str">
         <f>"{ name: """&amp;A52&amp;""", osisID: '"&amp;B52&amp;"', paratext: "&amp;IF(C52="","null","'"&amp;C52&amp;"'")&amp;", groups: "&amp;E52&amp;", aliases: "&amp;H52&amp;" },"</f>
@@ -4153,7 +4153,7 @@
         <v>395</v>
       </c>
       <c r="E53" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>404</v>
@@ -4163,7 +4163,7 @@
         <v>['1Thess','1TH']</v>
       </c>
       <c r="H53" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I53" t="str">
         <f>"{ name: """&amp;A53&amp;""", osisID: '"&amp;B53&amp;"', paratext: "&amp;IF(C53="","null","'"&amp;C53&amp;"'")&amp;", groups: "&amp;E53&amp;", aliases: "&amp;H53&amp;" },"</f>
@@ -4184,7 +4184,7 @@
         <v>395</v>
       </c>
       <c r="E54" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>404</v>
@@ -4194,7 +4194,7 @@
         <v>['2Thess','2TH']</v>
       </c>
       <c r="H54" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I54" t="str">
         <f>"{ name: """&amp;A54&amp;""", osisID: '"&amp;B54&amp;"', paratext: "&amp;IF(C54="","null","'"&amp;C54&amp;"'")&amp;", groups: "&amp;E54&amp;", aliases: "&amp;H54&amp;" },"</f>
@@ -4215,7 +4215,7 @@
         <v>395</v>
       </c>
       <c r="E55" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>404</v>
@@ -4225,7 +4225,7 @@
         <v>['1Tim','1TI']</v>
       </c>
       <c r="H55" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I55" t="str">
         <f>"{ name: """&amp;A55&amp;""", osisID: '"&amp;B55&amp;"', paratext: "&amp;IF(C55="","null","'"&amp;C55&amp;"'")&amp;", groups: "&amp;E55&amp;", aliases: "&amp;H55&amp;" },"</f>
@@ -4246,7 +4246,7 @@
         <v>395</v>
       </c>
       <c r="E56" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>404</v>
@@ -4256,7 +4256,7 @@
         <v>['2Tim','2TI']</v>
       </c>
       <c r="H56" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I56" t="str">
         <f>"{ name: """&amp;A56&amp;""", osisID: '"&amp;B56&amp;"', paratext: "&amp;IF(C56="","null","'"&amp;C56&amp;"'")&amp;", groups: "&amp;E56&amp;", aliases: "&amp;H56&amp;" },"</f>
@@ -4277,7 +4277,7 @@
         <v>395</v>
       </c>
       <c r="E57" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>404</v>
@@ -4287,7 +4287,7 @@
         <v>['Titus','TIT']</v>
       </c>
       <c r="H57" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="I57" t="str">
         <f>"{ name: """&amp;A57&amp;""", osisID: '"&amp;B57&amp;"', paratext: "&amp;IF(C57="","null","'"&amp;C57&amp;"'")&amp;", groups: "&amp;E57&amp;", aliases: "&amp;H57&amp;" },"</f>
@@ -4308,7 +4308,7 @@
         <v>395</v>
       </c>
       <c r="E58" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>404</v>
@@ -4318,7 +4318,7 @@
         <v>['Phlm','PHM']</v>
       </c>
       <c r="H58" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I58" t="str">
         <f>"{ name: """&amp;A58&amp;""", osisID: '"&amp;B58&amp;"', paratext: "&amp;IF(C58="","null","'"&amp;C58&amp;"'")&amp;", groups: "&amp;E58&amp;", aliases: "&amp;H58&amp;" },"</f>
@@ -4339,7 +4339,7 @@
         <v>395</v>
       </c>
       <c r="E59" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>404</v>
@@ -4349,7 +4349,7 @@
         <v>['Heb','HEB']</v>
       </c>
       <c r="H59" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I59" t="str">
         <f>"{ name: """&amp;A59&amp;""", osisID: '"&amp;B59&amp;"', paratext: "&amp;IF(C59="","null","'"&amp;C59&amp;"'")&amp;", groups: "&amp;E59&amp;", aliases: "&amp;H59&amp;" },"</f>
@@ -4370,7 +4370,7 @@
         <v>395</v>
       </c>
       <c r="E60" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>404</v>
@@ -4380,7 +4380,7 @@
         <v>['Jas','JAS']</v>
       </c>
       <c r="H60" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="I60" t="str">
         <f>"{ name: """&amp;A60&amp;""", osisID: '"&amp;B60&amp;"', paratext: "&amp;IF(C60="","null","'"&amp;C60&amp;"'")&amp;", groups: "&amp;E60&amp;", aliases: "&amp;H60&amp;" },"</f>
@@ -4401,7 +4401,7 @@
         <v>395</v>
       </c>
       <c r="E61" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>404</v>
@@ -4411,7 +4411,7 @@
         <v>['1Pet','1PE']</v>
       </c>
       <c r="H61" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I61" t="str">
         <f>"{ name: """&amp;A61&amp;""", osisID: '"&amp;B61&amp;"', paratext: "&amp;IF(C61="","null","'"&amp;C61&amp;"'")&amp;", groups: "&amp;E61&amp;", aliases: "&amp;H61&amp;" },"</f>
@@ -4432,7 +4432,7 @@
         <v>395</v>
       </c>
       <c r="E62" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>404</v>
@@ -4442,7 +4442,7 @@
         <v>['2Pet','2PE']</v>
       </c>
       <c r="H62" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I62" t="str">
         <f>"{ name: """&amp;A62&amp;""", osisID: '"&amp;B62&amp;"', paratext: "&amp;IF(C62="","null","'"&amp;C62&amp;"'")&amp;", groups: "&amp;E62&amp;", aliases: "&amp;H62&amp;" },"</f>
@@ -4463,7 +4463,7 @@
         <v>395</v>
       </c>
       <c r="E63" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>404</v>
@@ -4473,7 +4473,7 @@
         <v>['1John','1JN']</v>
       </c>
       <c r="H63" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I63" t="str">
         <f>"{ name: """&amp;A63&amp;""", osisID: '"&amp;B63&amp;"', paratext: "&amp;IF(C63="","null","'"&amp;C63&amp;"'")&amp;", groups: "&amp;E63&amp;", aliases: "&amp;H63&amp;" },"</f>
@@ -4494,7 +4494,7 @@
         <v>395</v>
       </c>
       <c r="E64" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>404</v>
@@ -4504,7 +4504,7 @@
         <v>['2John','2JN']</v>
       </c>
       <c r="H64" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="I64" t="str">
         <f>"{ name: """&amp;A64&amp;""", osisID: '"&amp;B64&amp;"', paratext: "&amp;IF(C64="","null","'"&amp;C64&amp;"'")&amp;", groups: "&amp;E64&amp;", aliases: "&amp;H64&amp;" },"</f>
@@ -4525,7 +4525,7 @@
         <v>395</v>
       </c>
       <c r="E65" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>404</v>
@@ -4535,7 +4535,7 @@
         <v>['3John','3JN']</v>
       </c>
       <c r="H65" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="I65" t="str">
         <f>"{ name: """&amp;A65&amp;""", osisID: '"&amp;B65&amp;"', paratext: "&amp;IF(C65="","null","'"&amp;C65&amp;"'")&amp;", groups: "&amp;E65&amp;", aliases: "&amp;H65&amp;" },"</f>
@@ -4556,7 +4556,7 @@
         <v>395</v>
       </c>
       <c r="E66" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>404</v>
@@ -4566,7 +4566,7 @@
         <v>['Jude','JUD']</v>
       </c>
       <c r="H66" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I66" t="str">
         <f>"{ name: """&amp;A66&amp;""", osisID: '"&amp;B66&amp;"', paratext: "&amp;IF(C66="","null","'"&amp;C66&amp;"'")&amp;", groups: "&amp;E66&amp;", aliases: "&amp;H66&amp;" },"</f>
@@ -4587,7 +4587,7 @@
         <v>395</v>
       </c>
       <c r="E67" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>404</v>
@@ -4597,7 +4597,7 @@
         <v>['Rev','REV']</v>
       </c>
       <c r="H67" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I67" t="str">
         <f>"{ name: """&amp;A67&amp;""", osisID: '"&amp;B67&amp;"', paratext: "&amp;IF(C67="","null","'"&amp;C67&amp;"'")&amp;", groups: "&amp;E67&amp;", aliases: "&amp;H67&amp;" },"</f>
@@ -4618,7 +4618,7 @@
         <v>396</v>
       </c>
       <c r="E68" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>405</v>
@@ -4628,7 +4628,7 @@
         <v>['Tob','TOB']</v>
       </c>
       <c r="H68" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I68" t="str">
         <f>"{ name: """&amp;A68&amp;""", osisID: '"&amp;B68&amp;"', paratext: "&amp;IF(C68="","null","'"&amp;C68&amp;"'")&amp;", groups: "&amp;E68&amp;", aliases: "&amp;H68&amp;" },"</f>
@@ -4649,7 +4649,7 @@
         <v>396</v>
       </c>
       <c r="E69" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>405</v>
@@ -4659,7 +4659,7 @@
         <v>['Jdt','JDT']</v>
       </c>
       <c r="H69" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I69" t="str">
         <f>"{ name: """&amp;A69&amp;""", osisID: '"&amp;B69&amp;"', paratext: "&amp;IF(C69="","null","'"&amp;C69&amp;"'")&amp;", groups: "&amp;E69&amp;", aliases: "&amp;H69&amp;" },"</f>
@@ -4680,7 +4680,7 @@
         <v>396</v>
       </c>
       <c r="E70" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>405</v>
@@ -4690,7 +4690,7 @@
         <v>['EsthGr','ESG']</v>
       </c>
       <c r="H70" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I70" t="str">
         <f>"{ name: """&amp;A70&amp;""", osisID: '"&amp;B70&amp;"', paratext: "&amp;IF(C70="","null","'"&amp;C70&amp;"'")&amp;", groups: "&amp;E70&amp;", aliases: "&amp;H70&amp;" },"</f>
@@ -4711,7 +4711,7 @@
         <v>396</v>
       </c>
       <c r="E71" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>405</v>
@@ -4721,7 +4721,7 @@
         <v>['AddEsth','ADE']</v>
       </c>
       <c r="H71" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I71" t="str">
         <f>"{ name: """&amp;A71&amp;""", osisID: '"&amp;B71&amp;"', paratext: "&amp;IF(C71="","null","'"&amp;C71&amp;"'")&amp;", groups: "&amp;E71&amp;", aliases: "&amp;H71&amp;" },"</f>
@@ -4742,7 +4742,7 @@
         <v>396</v>
       </c>
       <c r="E72" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>405</v>
@@ -4752,7 +4752,7 @@
         <v>['Wis','WIS']</v>
       </c>
       <c r="H72" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I72" t="str">
         <f>"{ name: """&amp;A72&amp;""", osisID: '"&amp;B72&amp;"', paratext: "&amp;IF(C72="","null","'"&amp;C72&amp;"'")&amp;", groups: "&amp;E72&amp;", aliases: "&amp;H72&amp;" },"</f>
@@ -4770,7 +4770,7 @@
         <v>396</v>
       </c>
       <c r="E73" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>405</v>
@@ -4780,7 +4780,7 @@
         <v>['SirP']</v>
       </c>
       <c r="H73" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I73" t="str">
         <f>"{ name: """&amp;A73&amp;""", osisID: '"&amp;B73&amp;"', paratext: "&amp;IF(C73="","null","'"&amp;C73&amp;"'")&amp;", groups: "&amp;E73&amp;", aliases: "&amp;H73&amp;" },"</f>
@@ -4801,7 +4801,7 @@
         <v>396</v>
       </c>
       <c r="E74" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>405</v>
@@ -4811,7 +4811,7 @@
         <v>['Sir','SIR']</v>
       </c>
       <c r="H74" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I74" t="str">
         <f>"{ name: """&amp;A74&amp;""", osisID: '"&amp;B74&amp;"', paratext: "&amp;IF(C74="","null","'"&amp;C74&amp;"'")&amp;", groups: "&amp;E74&amp;", aliases: "&amp;H74&amp;" },"</f>
@@ -4832,7 +4832,7 @@
         <v>396</v>
       </c>
       <c r="E75" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>405</v>
@@ -4842,7 +4842,7 @@
         <v>['Bar','BAR']</v>
       </c>
       <c r="H75" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I75" t="str">
         <f>"{ name: """&amp;A75&amp;""", osisID: '"&amp;B75&amp;"', paratext: "&amp;IF(C75="","null","'"&amp;C75&amp;"'")&amp;", groups: "&amp;E75&amp;", aliases: "&amp;H75&amp;" },"</f>
@@ -4863,7 +4863,7 @@
         <v>396</v>
       </c>
       <c r="E76" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>405</v>
@@ -4873,7 +4873,7 @@
         <v>['EpJer','LJE']</v>
       </c>
       <c r="H76" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="I76" t="str">
         <f>"{ name: """&amp;A76&amp;""", osisID: '"&amp;B76&amp;"', paratext: "&amp;IF(C76="","null","'"&amp;C76&amp;"'")&amp;", groups: "&amp;E76&amp;", aliases: "&amp;H76&amp;" },"</f>
@@ -4894,7 +4894,7 @@
         <v>396</v>
       </c>
       <c r="E77" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>405</v>
@@ -4904,7 +4904,7 @@
         <v>['DanGr','DAG']</v>
       </c>
       <c r="H77" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I77" t="str">
         <f>"{ name: """&amp;A77&amp;""", osisID: '"&amp;B77&amp;"', paratext: "&amp;IF(C77="","null","'"&amp;C77&amp;"'")&amp;", groups: "&amp;E77&amp;", aliases: "&amp;H77&amp;" },"</f>
@@ -4922,7 +4922,7 @@
         <v>396</v>
       </c>
       <c r="E78" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>405</v>
@@ -4932,7 +4932,7 @@
         <v>['AddDan']</v>
       </c>
       <c r="H78" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I78" t="str">
         <f>"{ name: """&amp;A78&amp;""", osisID: '"&amp;B78&amp;"', paratext: "&amp;IF(C78="","null","'"&amp;C78&amp;"'")&amp;", groups: "&amp;E78&amp;", aliases: "&amp;H78&amp;" },"</f>
@@ -4953,7 +4953,7 @@
         <v>396</v>
       </c>
       <c r="E79" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>405</v>
@@ -4963,7 +4963,7 @@
         <v>['PrAzar','S3Y']</v>
       </c>
       <c r="H79" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I79" t="str">
         <f>"{ name: """&amp;A79&amp;""", osisID: '"&amp;B79&amp;"', paratext: "&amp;IF(C79="","null","'"&amp;C79&amp;"'")&amp;", groups: "&amp;E79&amp;", aliases: "&amp;H79&amp;" },"</f>
@@ -4984,7 +4984,7 @@
         <v>396</v>
       </c>
       <c r="E80" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>405</v>
@@ -4994,7 +4994,7 @@
         <v>['Sus','SUS']</v>
       </c>
       <c r="H80" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I80" t="str">
         <f>"{ name: """&amp;A80&amp;""", osisID: '"&amp;B80&amp;"', paratext: "&amp;IF(C80="","null","'"&amp;C80&amp;"'")&amp;", groups: "&amp;E80&amp;", aliases: "&amp;H80&amp;" },"</f>
@@ -5015,7 +5015,7 @@
         <v>396</v>
       </c>
       <c r="E81" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>405</v>
@@ -5025,7 +5025,7 @@
         <v>['Bel','BEL']</v>
       </c>
       <c r="H81" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="I81" t="str">
         <f>"{ name: """&amp;A81&amp;""", osisID: '"&amp;B81&amp;"', paratext: "&amp;IF(C81="","null","'"&amp;C81&amp;"'")&amp;", groups: "&amp;E81&amp;", aliases: "&amp;H81&amp;" },"</f>
@@ -5046,7 +5046,7 @@
         <v>396</v>
       </c>
       <c r="E82" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>405</v>
@@ -5056,7 +5056,7 @@
         <v>['1Macc','1MA']</v>
       </c>
       <c r="H82" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I82" t="str">
         <f>"{ name: """&amp;A82&amp;""", osisID: '"&amp;B82&amp;"', paratext: "&amp;IF(C82="","null","'"&amp;C82&amp;"'")&amp;", groups: "&amp;E82&amp;", aliases: "&amp;H82&amp;" },"</f>
@@ -5077,7 +5077,7 @@
         <v>396</v>
       </c>
       <c r="E83" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>405</v>
@@ -5087,7 +5087,7 @@
         <v>['2Macc','2MA']</v>
       </c>
       <c r="H83" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I83" t="str">
         <f>"{ name: """&amp;A83&amp;""", osisID: '"&amp;B83&amp;"', paratext: "&amp;IF(C83="","null","'"&amp;C83&amp;"'")&amp;", groups: "&amp;E83&amp;", aliases: "&amp;H83&amp;" },"</f>
@@ -5108,7 +5108,7 @@
         <v>396</v>
       </c>
       <c r="E84" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>405</v>
@@ -5118,7 +5118,7 @@
         <v>['3Macc','3MA']</v>
       </c>
       <c r="H84" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I84" t="str">
         <f>"{ name: """&amp;A84&amp;""", osisID: '"&amp;B84&amp;"', paratext: "&amp;IF(C84="","null","'"&amp;C84&amp;"'")&amp;", groups: "&amp;E84&amp;", aliases: "&amp;H84&amp;" },"</f>
@@ -5139,7 +5139,7 @@
         <v>396</v>
       </c>
       <c r="E85" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>405</v>
@@ -5149,7 +5149,7 @@
         <v>['4Macc','4MA']</v>
       </c>
       <c r="H85" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I85" t="str">
         <f>"{ name: """&amp;A85&amp;""", osisID: '"&amp;B85&amp;"', paratext: "&amp;IF(C85="","null","'"&amp;C85&amp;"'")&amp;", groups: "&amp;E85&amp;", aliases: "&amp;H85&amp;" },"</f>
@@ -5170,7 +5170,7 @@
         <v>396</v>
       </c>
       <c r="E86" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>405</v>
@@ -5180,7 +5180,7 @@
         <v>['PrMan','MAN']</v>
       </c>
       <c r="H86" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I86" t="str">
         <f>"{ name: """&amp;A86&amp;""", osisID: '"&amp;B86&amp;"', paratext: "&amp;IF(C86="","null","'"&amp;C86&amp;"'")&amp;", groups: "&amp;E86&amp;", aliases: "&amp;H86&amp;" },"</f>
@@ -5201,7 +5201,7 @@
         <v>396</v>
       </c>
       <c r="E87" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>405</v>
@@ -5211,7 +5211,7 @@
         <v>['1Esd','1ES']</v>
       </c>
       <c r="H87" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I87" t="str">
         <f>"{ name: """&amp;A87&amp;""", osisID: '"&amp;B87&amp;"', paratext: "&amp;IF(C87="","null","'"&amp;C87&amp;"'")&amp;", groups: "&amp;E87&amp;", aliases: "&amp;H87&amp;" },"</f>
@@ -5232,7 +5232,7 @@
         <v>396</v>
       </c>
       <c r="E88" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>405</v>
@@ -5242,7 +5242,7 @@
         <v>['2Esd','2ES']</v>
       </c>
       <c r="H88" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I88" t="str">
         <f>"{ name: """&amp;A88&amp;""", osisID: '"&amp;B88&amp;"', paratext: "&amp;IF(C88="","null","'"&amp;C88&amp;"'")&amp;", groups: "&amp;E88&amp;", aliases: "&amp;H88&amp;" },"</f>
@@ -5263,7 +5263,7 @@
         <v>396</v>
       </c>
       <c r="E89" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>405</v>
@@ -5273,7 +5273,7 @@
         <v>['AddPs','PS2']</v>
       </c>
       <c r="H89" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I89" t="str">
         <f>"{ name: """&amp;A89&amp;""", osisID: '"&amp;B89&amp;"', paratext: "&amp;IF(C89="","null","'"&amp;C89&amp;"'")&amp;", groups: "&amp;E89&amp;", aliases: "&amp;H89&amp;" },"</f>
@@ -5294,7 +5294,7 @@
         <v>397</v>
       </c>
       <c r="E90" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>405</v>
@@ -5304,7 +5304,7 @@
         <v>['Odes','ODA']</v>
       </c>
       <c r="H90" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I90" t="str">
         <f>"{ name: """&amp;A90&amp;""", osisID: '"&amp;B90&amp;"', paratext: "&amp;IF(C90="","null","'"&amp;C90&amp;"'")&amp;", groups: "&amp;E90&amp;", aliases: "&amp;H90&amp;" },"</f>
@@ -5325,7 +5325,7 @@
         <v>397</v>
       </c>
       <c r="E91" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>405</v>
@@ -5335,7 +5335,7 @@
         <v>['PssSol','PSS']</v>
       </c>
       <c r="H91" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I91" t="str">
         <f>"{ name: """&amp;A91&amp;""", osisID: '"&amp;B91&amp;"', paratext: "&amp;IF(C91="","null","'"&amp;C91&amp;"'")&amp;", groups: "&amp;E91&amp;", aliases: "&amp;H91&amp;" },"</f>
@@ -5356,7 +5356,7 @@
         <v>398</v>
       </c>
       <c r="E92" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>405</v>
@@ -5366,7 +5366,7 @@
         <v>['JoshA','JSA']</v>
       </c>
       <c r="H92" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I92" t="str">
         <f>"{ name: """&amp;A92&amp;""", osisID: '"&amp;B92&amp;"', paratext: "&amp;IF(C92="","null","'"&amp;C92&amp;"'")&amp;", groups: "&amp;E92&amp;", aliases: "&amp;H92&amp;" },"</f>
@@ -5387,7 +5387,7 @@
         <v>398</v>
       </c>
       <c r="E93" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>405</v>
@@ -5397,7 +5397,7 @@
         <v>['JudgB','JDB']</v>
       </c>
       <c r="H93" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="I93" t="str">
         <f>"{ name: """&amp;A93&amp;""", osisID: '"&amp;B93&amp;"', paratext: "&amp;IF(C93="","null","'"&amp;C93&amp;"'")&amp;", groups: "&amp;E93&amp;", aliases: "&amp;H93&amp;" },"</f>
@@ -5418,7 +5418,7 @@
         <v>398</v>
       </c>
       <c r="E94" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>405</v>
@@ -5428,7 +5428,7 @@
         <v>['TobS','TBS']</v>
       </c>
       <c r="H94" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="I94" t="str">
         <f>"{ name: """&amp;A94&amp;""", osisID: '"&amp;B94&amp;"', paratext: "&amp;IF(C94="","null","'"&amp;C94&amp;"'")&amp;", groups: "&amp;E94&amp;", aliases: "&amp;H94&amp;" },"</f>
@@ -5449,7 +5449,7 @@
         <v>398</v>
       </c>
       <c r="E95" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>405</v>
@@ -5459,7 +5459,7 @@
         <v>['SusTh','SST']</v>
       </c>
       <c r="H95" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I95" t="str">
         <f>"{ name: """&amp;A95&amp;""", osisID: '"&amp;B95&amp;"', paratext: "&amp;IF(C95="","null","'"&amp;C95&amp;"'")&amp;", groups: "&amp;E95&amp;", aliases: "&amp;H95&amp;" },"</f>
@@ -5480,7 +5480,7 @@
         <v>398</v>
       </c>
       <c r="E96" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>405</v>
@@ -5490,7 +5490,7 @@
         <v>['DanTh','DNT']</v>
       </c>
       <c r="H96" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I96" t="str">
         <f>"{ name: """&amp;A96&amp;""", osisID: '"&amp;B96&amp;"', paratext: "&amp;IF(C96="","null","'"&amp;C96&amp;"'")&amp;", groups: "&amp;E96&amp;", aliases: "&amp;H96&amp;" },"</f>
@@ -5511,7 +5511,7 @@
         <v>398</v>
       </c>
       <c r="E97" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>405</v>
@@ -5521,7 +5521,7 @@
         <v>['BelTh','BLT']</v>
       </c>
       <c r="H97" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I97" t="str">
         <f>"{ name: """&amp;A97&amp;""", osisID: '"&amp;B97&amp;"', paratext: "&amp;IF(C97="","null","'"&amp;C97&amp;"'")&amp;", groups: "&amp;E97&amp;", aliases: "&amp;H97&amp;" },"</f>
@@ -5542,7 +5542,7 @@
         <v>399</v>
       </c>
       <c r="E98" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>405</v>
@@ -5552,7 +5552,7 @@
         <v>['EpLao','LAO']</v>
       </c>
       <c r="H98" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I98" t="str">
         <f>"{ name: """&amp;A98&amp;""", osisID: '"&amp;B98&amp;"', paratext: "&amp;IF(C98="","null","'"&amp;C98&amp;"'")&amp;", groups: "&amp;E98&amp;", aliases: "&amp;H98&amp;" },"</f>
@@ -5573,7 +5573,7 @@
         <v>399</v>
       </c>
       <c r="E99" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>405</v>
@@ -5583,7 +5583,7 @@
         <v>['5Ezra','5EZ']</v>
       </c>
       <c r="H99" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="I99" t="str">
         <f>"{ name: """&amp;A99&amp;""", osisID: '"&amp;B99&amp;"', paratext: "&amp;IF(C99="","null","'"&amp;C99&amp;"'")&amp;", groups: "&amp;E99&amp;", aliases: "&amp;H99&amp;" },"</f>
@@ -5604,7 +5604,7 @@
         <v>399</v>
       </c>
       <c r="E100" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>405</v>
@@ -5614,7 +5614,7 @@
         <v>['4Ezra','EZA']</v>
       </c>
       <c r="H100" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I100" t="str">
         <f>"{ name: """&amp;A100&amp;""", osisID: '"&amp;B100&amp;"', paratext: "&amp;IF(C100="","null","'"&amp;C100&amp;"'")&amp;", groups: "&amp;E100&amp;", aliases: "&amp;H100&amp;" },"</f>
@@ -5635,7 +5635,7 @@
         <v>399</v>
       </c>
       <c r="E101" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>405</v>
@@ -5645,7 +5645,7 @@
         <v>['6Ezra','6EZ']</v>
       </c>
       <c r="H101" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I101" t="str">
         <f>"{ name: """&amp;A101&amp;""", osisID: '"&amp;B101&amp;"', paratext: "&amp;IF(C101="","null","'"&amp;C101&amp;"'")&amp;", groups: "&amp;E101&amp;", aliases: "&amp;H101&amp;" },"</f>
@@ -5666,7 +5666,7 @@
         <v>399</v>
       </c>
       <c r="E102" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>405</v>
@@ -5676,7 +5676,7 @@
         <v>['PrSol','PSO']</v>
       </c>
       <c r="H102" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="I102" t="str">
         <f>"{ name: """&amp;A102&amp;""", osisID: '"&amp;B102&amp;"', paratext: "&amp;IF(C102="","null","'"&amp;C102&amp;"'")&amp;", groups: "&amp;E102&amp;", aliases: "&amp;H102&amp;" },"</f>
@@ -5697,7 +5697,7 @@
         <v>399</v>
       </c>
       <c r="E103" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>405</v>
@@ -5707,7 +5707,7 @@
         <v>['PrJer','PJE']</v>
       </c>
       <c r="H103" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I103" t="str">
         <f>"{ name: """&amp;A103&amp;""", osisID: '"&amp;B103&amp;"', paratext: "&amp;IF(C103="","null","'"&amp;C103&amp;"'")&amp;", groups: "&amp;E103&amp;", aliases: "&amp;H103&amp;" },"</f>
@@ -5728,7 +5728,7 @@
         <v>400</v>
       </c>
       <c r="E104" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>405</v>
@@ -5738,7 +5738,7 @@
         <v>['1En','ENO']</v>
       </c>
       <c r="H104" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I104" t="str">
         <f>"{ name: """&amp;A104&amp;""", osisID: '"&amp;B104&amp;"', paratext: "&amp;IF(C104="","null","'"&amp;C104&amp;"'")&amp;", groups: "&amp;E104&amp;", aliases: "&amp;H104&amp;" },"</f>
@@ -5759,7 +5759,7 @@
         <v>400</v>
       </c>
       <c r="E105" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>405</v>
@@ -5769,7 +5769,7 @@
         <v>['Jub','JUB']</v>
       </c>
       <c r="H105" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I105" t="str">
         <f>"{ name: """&amp;A105&amp;""", osisID: '"&amp;B105&amp;"', paratext: "&amp;IF(C105="","null","'"&amp;C105&amp;"'")&amp;", groups: "&amp;E105&amp;", aliases: "&amp;H105&amp;" },"</f>
@@ -5790,7 +5790,7 @@
         <v>400</v>
       </c>
       <c r="E106" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>405</v>
@@ -5800,7 +5800,7 @@
         <v>['4Bar','4BA']</v>
       </c>
       <c r="H106" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I106" t="str">
         <f>"{ name: """&amp;A106&amp;""", osisID: '"&amp;B106&amp;"', paratext: "&amp;IF(C106="","null","'"&amp;C106&amp;"'")&amp;", groups: "&amp;E106&amp;", aliases: "&amp;H106&amp;" },"</f>
@@ -5821,7 +5821,7 @@
         <v>400</v>
       </c>
       <c r="E107" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>405</v>
@@ -5831,7 +5831,7 @@
         <v>['1Meq','1MQ']</v>
       </c>
       <c r="H107" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="I107" t="str">
         <f>"{ name: """&amp;A107&amp;""", osisID: '"&amp;B107&amp;"', paratext: "&amp;IF(C107="","null","'"&amp;C107&amp;"'")&amp;", groups: "&amp;E107&amp;", aliases: "&amp;H107&amp;" },"</f>
@@ -5852,7 +5852,7 @@
         <v>400</v>
       </c>
       <c r="E108" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>405</v>
@@ -5862,7 +5862,7 @@
         <v>['2Meq','2MQ']</v>
       </c>
       <c r="H108" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I108" t="str">
         <f>"{ name: """&amp;A108&amp;""", osisID: '"&amp;B108&amp;"', paratext: "&amp;IF(C108="","null","'"&amp;C108&amp;"'")&amp;", groups: "&amp;E108&amp;", aliases: "&amp;H108&amp;" },"</f>
@@ -5883,7 +5883,7 @@
         <v>400</v>
       </c>
       <c r="E109" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>405</v>
@@ -5893,7 +5893,7 @@
         <v>['3Meq','3MQ']</v>
       </c>
       <c r="H109" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I109" t="str">
         <f>"{ name: """&amp;A109&amp;""", osisID: '"&amp;B109&amp;"', paratext: "&amp;IF(C109="","null","'"&amp;C109&amp;"'")&amp;", groups: "&amp;E109&amp;", aliases: "&amp;H109&amp;" },"</f>
@@ -5914,7 +5914,7 @@
         <v>400</v>
       </c>
       <c r="E110" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>405</v>
@@ -5924,7 +5924,7 @@
         <v>['Rep','REP']</v>
       </c>
       <c r="H110" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I110" t="str">
         <f>"{ name: """&amp;A110&amp;""", osisID: '"&amp;B110&amp;"', paratext: "&amp;IF(C110="","null","'"&amp;C110&amp;"'")&amp;", groups: "&amp;E110&amp;", aliases: "&amp;H110&amp;" },"</f>
@@ -5942,7 +5942,7 @@
         <v>400</v>
       </c>
       <c r="E111" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>405</v>
@@ -5952,7 +5952,7 @@
         <v>['AddJer']</v>
       </c>
       <c r="H111" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I111" t="str">
         <f>"{ name: """&amp;A111&amp;""", osisID: '"&amp;B111&amp;"', paratext: "&amp;IF(C111="","null","'"&amp;C111&amp;"'")&amp;", groups: "&amp;E111&amp;", aliases: "&amp;H111&amp;" },"</f>
@@ -5970,7 +5970,7 @@
         <v>400</v>
       </c>
       <c r="E112" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>405</v>
@@ -5980,7 +5980,7 @@
         <v>['PsJos']</v>
       </c>
       <c r="H112" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I112" t="str">
         <f>"{ name: """&amp;A112&amp;""", osisID: '"&amp;B112&amp;"', paratext: "&amp;IF(C112="","null","'"&amp;C112&amp;"'")&amp;", groups: "&amp;E112&amp;", aliases: "&amp;H112&amp;" },"</f>
@@ -6001,7 +6001,7 @@
         <v>401</v>
       </c>
       <c r="E113" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>405</v>
@@ -6011,7 +6011,7 @@
         <v>['EpCorPaul','COP']</v>
       </c>
       <c r="H113" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I113" t="str">
         <f>"{ name: """&amp;A113&amp;""", osisID: '"&amp;B113&amp;"', paratext: "&amp;IF(C113="","null","'"&amp;C113&amp;"'")&amp;", groups: "&amp;E113&amp;", aliases: "&amp;H113&amp;" },"</f>
@@ -6032,7 +6032,7 @@
         <v>401</v>
       </c>
       <c r="E114" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>405</v>
@@ -6042,7 +6042,7 @@
         <v>['3Cor','3CO']</v>
       </c>
       <c r="H114" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I114" t="str">
         <f>"{ name: """&amp;A114&amp;""", osisID: '"&amp;B114&amp;"', paratext: "&amp;IF(C114="","null","'"&amp;C114&amp;"'")&amp;", groups: "&amp;E114&amp;", aliases: "&amp;H114&amp;" },"</f>
@@ -6063,7 +6063,7 @@
         <v>401</v>
       </c>
       <c r="E115" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>405</v>
@@ -6073,7 +6073,7 @@
         <v>['WSir','WSI']</v>
       </c>
       <c r="H115" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I115" t="str">
         <f>"{ name: """&amp;A115&amp;""", osisID: '"&amp;B115&amp;"', paratext: "&amp;IF(C115="","null","'"&amp;C115&amp;"'")&amp;", groups: "&amp;E115&amp;", aliases: "&amp;H115&amp;" },"</f>
@@ -6094,7 +6094,7 @@
         <v>401</v>
       </c>
       <c r="E116" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>405</v>
@@ -6104,7 +6104,7 @@
         <v>['PrEuth','EUT']</v>
       </c>
       <c r="H116" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="I116" t="str">
         <f>"{ name: """&amp;A116&amp;""", osisID: '"&amp;B116&amp;"', paratext: "&amp;IF(C116="","null","'"&amp;C116&amp;"'")&amp;", groups: "&amp;E116&amp;", aliases: "&amp;H116&amp;" },"</f>
@@ -6125,7 +6125,7 @@
         <v>401</v>
       </c>
       <c r="E117" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>405</v>
@@ -6135,7 +6135,7 @@
         <v>['DormJohn','DOJ']</v>
       </c>
       <c r="H117" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I117" t="str">
         <f>"{ name: """&amp;A117&amp;""", osisID: '"&amp;B117&amp;"', paratext: "&amp;IF(C117="","null","'"&amp;C117&amp;"'")&amp;", groups: "&amp;E117&amp;", aliases: "&amp;H117&amp;" },"</f>
@@ -6153,7 +6153,7 @@
         <v>401</v>
       </c>
       <c r="E118" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>405</v>
@@ -6163,7 +6163,7 @@
         <v>['JosAsen']</v>
       </c>
       <c r="H118" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I118" t="str">
         <f>"{ name: """&amp;A118&amp;""", osisID: '"&amp;B118&amp;"', paratext: "&amp;IF(C118="","null","'"&amp;C118&amp;"'")&amp;", groups: "&amp;E118&amp;", aliases: "&amp;H118&amp;" },"</f>
@@ -6181,7 +6181,7 @@
         <v>401</v>
       </c>
       <c r="E119" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>405</v>
@@ -6191,7 +6191,7 @@
         <v>['T12Patr']</v>
       </c>
       <c r="H119" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I119" t="str">
         <f>"{ name: """&amp;A119&amp;""", osisID: '"&amp;B119&amp;"', paratext: "&amp;IF(C119="","null","'"&amp;C119&amp;"'")&amp;", groups: "&amp;E119&amp;", aliases: "&amp;H119&amp;" },"</f>
@@ -6209,7 +6209,7 @@
         <v>401</v>
       </c>
       <c r="E120" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>405</v>
@@ -6219,7 +6219,7 @@
         <v>['T12Patr.TAsh']</v>
       </c>
       <c r="H120" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I120" t="str">
         <f>"{ name: """&amp;A120&amp;""", osisID: '"&amp;B120&amp;"', paratext: "&amp;IF(C120="","null","'"&amp;C120&amp;"'")&amp;", groups: "&amp;E120&amp;", aliases: "&amp;H120&amp;" },"</f>
@@ -6237,7 +6237,7 @@
         <v>401</v>
       </c>
       <c r="E121" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>405</v>
@@ -6247,7 +6247,7 @@
         <v>['T12Patr.TBenj']</v>
       </c>
       <c r="H121" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I121" t="str">
         <f>"{ name: """&amp;A121&amp;""", osisID: '"&amp;B121&amp;"', paratext: "&amp;IF(C121="","null","'"&amp;C121&amp;"'")&amp;", groups: "&amp;E121&amp;", aliases: "&amp;H121&amp;" },"</f>
@@ -6265,7 +6265,7 @@
         <v>401</v>
       </c>
       <c r="E122" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>405</v>
@@ -6275,7 +6275,7 @@
         <v>['T12Patr.TDan']</v>
       </c>
       <c r="H122" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I122" t="str">
         <f>"{ name: """&amp;A122&amp;""", osisID: '"&amp;B122&amp;"', paratext: "&amp;IF(C122="","null","'"&amp;C122&amp;"'")&amp;", groups: "&amp;E122&amp;", aliases: "&amp;H122&amp;" },"</f>
@@ -6293,7 +6293,7 @@
         <v>401</v>
       </c>
       <c r="E123" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>405</v>
@@ -6303,7 +6303,7 @@
         <v>['T12Patr.TGad']</v>
       </c>
       <c r="H123" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I123" t="str">
         <f>"{ name: """&amp;A123&amp;""", osisID: '"&amp;B123&amp;"', paratext: "&amp;IF(C123="","null","'"&amp;C123&amp;"'")&amp;", groups: "&amp;E123&amp;", aliases: "&amp;H123&amp;" },"</f>
@@ -6321,7 +6321,7 @@
         <v>401</v>
       </c>
       <c r="E124" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>405</v>
@@ -6331,7 +6331,7 @@
         <v>['T12Patr.TIss']</v>
       </c>
       <c r="H124" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="I124" t="str">
         <f>"{ name: """&amp;A124&amp;""", osisID: '"&amp;B124&amp;"', paratext: "&amp;IF(C124="","null","'"&amp;C124&amp;"'")&amp;", groups: "&amp;E124&amp;", aliases: "&amp;H124&amp;" },"</f>
@@ -6349,7 +6349,7 @@
         <v>401</v>
       </c>
       <c r="E125" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>405</v>
@@ -6359,7 +6359,7 @@
         <v>['T12Patr.TJos']</v>
       </c>
       <c r="H125" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="I125" t="str">
         <f>"{ name: """&amp;A125&amp;""", osisID: '"&amp;B125&amp;"', paratext: "&amp;IF(C125="","null","'"&amp;C125&amp;"'")&amp;", groups: "&amp;E125&amp;", aliases: "&amp;H125&amp;" },"</f>
@@ -6377,7 +6377,7 @@
         <v>401</v>
       </c>
       <c r="E126" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>405</v>
@@ -6387,7 +6387,7 @@
         <v>['T12Patr.TJud']</v>
       </c>
       <c r="H126" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="I126" t="str">
         <f>"{ name: """&amp;A126&amp;""", osisID: '"&amp;B126&amp;"', paratext: "&amp;IF(C126="","null","'"&amp;C126&amp;"'")&amp;", groups: "&amp;E126&amp;", aliases: "&amp;H126&amp;" },"</f>
@@ -6405,7 +6405,7 @@
         <v>401</v>
       </c>
       <c r="E127" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>405</v>
@@ -6415,7 +6415,7 @@
         <v>['T12Patr.TLevi']</v>
       </c>
       <c r="H127" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I127" t="str">
         <f>"{ name: """&amp;A127&amp;""", osisID: '"&amp;B127&amp;"', paratext: "&amp;IF(C127="","null","'"&amp;C127&amp;"'")&amp;", groups: "&amp;E127&amp;", aliases: "&amp;H127&amp;" },"</f>
@@ -6433,7 +6433,7 @@
         <v>401</v>
       </c>
       <c r="E128" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>405</v>
@@ -6443,7 +6443,7 @@
         <v>['T12Patr.TNaph']</v>
       </c>
       <c r="H128" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="I128" t="str">
         <f>"{ name: """&amp;A128&amp;""", osisID: '"&amp;B128&amp;"', paratext: "&amp;IF(C128="","null","'"&amp;C128&amp;"'")&amp;", groups: "&amp;E128&amp;", aliases: "&amp;H128&amp;" },"</f>
@@ -6461,7 +6461,7 @@
         <v>401</v>
       </c>
       <c r="E129" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>405</v>
@@ -6471,7 +6471,7 @@
         <v>['T12Patr.TReu']</v>
       </c>
       <c r="H129" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I129" t="str">
         <f>"{ name: """&amp;A129&amp;""", osisID: '"&amp;B129&amp;"', paratext: "&amp;IF(C129="","null","'"&amp;C129&amp;"'")&amp;", groups: "&amp;E129&amp;", aliases: "&amp;H129&amp;" },"</f>
@@ -6489,7 +6489,7 @@
         <v>401</v>
       </c>
       <c r="E130" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>405</v>
@@ -6499,7 +6499,7 @@
         <v>['T12Patr.TSim']</v>
       </c>
       <c r="H130" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I130" t="str">
         <f>"{ name: """&amp;A130&amp;""", osisID: '"&amp;B130&amp;"', paratext: "&amp;IF(C130="","null","'"&amp;C130&amp;"'")&amp;", groups: "&amp;E130&amp;", aliases: "&amp;H130&amp;" },"</f>
@@ -6517,7 +6517,7 @@
         <v>401</v>
       </c>
       <c r="E131" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>405</v>
@@ -6527,7 +6527,7 @@
         <v>['T12Patr.TZeb']</v>
       </c>
       <c r="H131" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I131" t="str">
         <f>"{ name: """&amp;A131&amp;""", osisID: '"&amp;B131&amp;"', paratext: "&amp;IF(C131="","null","'"&amp;C131&amp;"'")&amp;", groups: "&amp;E131&amp;", aliases: "&amp;H131&amp;" },"</f>
@@ -6548,7 +6548,7 @@
         <v>402</v>
       </c>
       <c r="E132" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>405</v>
@@ -6558,7 +6558,7 @@
         <v>['2Bar','2BA']</v>
       </c>
       <c r="H132" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I132" t="str">
         <f>"{ name: """&amp;A132&amp;""", osisID: '"&amp;B132&amp;"', paratext: "&amp;IF(C132="","null","'"&amp;C132&amp;"'")&amp;", groups: "&amp;E132&amp;", aliases: "&amp;H132&amp;" },"</f>
@@ -6579,7 +6579,7 @@
         <v>402</v>
       </c>
       <c r="E133" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>405</v>
@@ -6589,7 +6589,7 @@
         <v>['EpBar','LBA']</v>
       </c>
       <c r="H133" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="I133" t="str">
         <f>"{ name: """&amp;A133&amp;""", osisID: '"&amp;B133&amp;"', paratext: "&amp;IF(C133="","null","'"&amp;C133&amp;"'")&amp;", groups: "&amp;E133&amp;", aliases: "&amp;H133&amp;" },"</f>
@@ -6610,7 +6610,7 @@
         <v>402</v>
       </c>
       <c r="E134" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>405</v>
@@ -6620,7 +6620,7 @@
         <v>['5ApocSyrPss','PS3']</v>
       </c>
       <c r="H134" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I134" t="str">
         <f>"{ name: """&amp;A134&amp;""", osisID: '"&amp;B134&amp;"', paratext: "&amp;IF(C134="","null","'"&amp;C134&amp;"'")&amp;", groups: "&amp;E134&amp;", aliases: "&amp;H134&amp;" },"</f>
@@ -6638,7 +6638,7 @@
         <v>402</v>
       </c>
       <c r="E135" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>405</v>
@@ -6648,7 +6648,7 @@
         <v>['JosephusJWvi']</v>
       </c>
       <c r="H135" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I135" t="str">
         <f>"{ name: """&amp;A135&amp;""", osisID: '"&amp;B135&amp;"', paratext: "&amp;IF(C135="","null","'"&amp;C135&amp;"'")&amp;", groups: "&amp;E135&amp;", aliases: "&amp;H135&amp;" },"</f>
@@ -6669,7 +6669,7 @@
         <v>403</v>
       </c>
       <c r="E136" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>405</v>
@@ -6679,7 +6679,7 @@
         <v>['1Clem','1CL']</v>
       </c>
       <c r="H136" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I136" t="str">
         <f>"{ name: """&amp;A136&amp;""", osisID: '"&amp;B136&amp;"', paratext: "&amp;IF(C136="","null","'"&amp;C136&amp;"'")&amp;", groups: "&amp;E136&amp;", aliases: "&amp;H136&amp;" },"</f>
@@ -6700,7 +6700,7 @@
         <v>403</v>
       </c>
       <c r="E137" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>405</v>
@@ -6710,7 +6710,7 @@
         <v>['2Clem','2CL']</v>
       </c>
       <c r="H137" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I137" t="str">
         <f>"{ name: """&amp;A137&amp;""", osisID: '"&amp;B137&amp;"', paratext: "&amp;IF(C137="","null","'"&amp;C137&amp;"'")&amp;", groups: "&amp;E137&amp;", aliases: "&amp;H137&amp;" },"</f>
@@ -6728,7 +6728,7 @@
         <v>403</v>
       </c>
       <c r="E138" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>405</v>
@@ -6738,7 +6738,7 @@
         <v>['IgnEph']</v>
       </c>
       <c r="H138" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I138" t="str">
         <f>"{ name: """&amp;A138&amp;""", osisID: '"&amp;B138&amp;"', paratext: "&amp;IF(C138="","null","'"&amp;C138&amp;"'")&amp;", groups: "&amp;E138&amp;", aliases: "&amp;H138&amp;" },"</f>
@@ -6756,7 +6756,7 @@
         <v>403</v>
       </c>
       <c r="E139" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>405</v>
@@ -6766,7 +6766,7 @@
         <v>['IgnMagn']</v>
       </c>
       <c r="H139" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I139" t="str">
         <f>"{ name: """&amp;A139&amp;""", osisID: '"&amp;B139&amp;"', paratext: "&amp;IF(C139="","null","'"&amp;C139&amp;"'")&amp;", groups: "&amp;E139&amp;", aliases: "&amp;H139&amp;" },"</f>
@@ -6784,7 +6784,7 @@
         <v>403</v>
       </c>
       <c r="E140" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>405</v>
@@ -6794,7 +6794,7 @@
         <v>['IgnTrall']</v>
       </c>
       <c r="H140" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I140" t="str">
         <f>"{ name: """&amp;A140&amp;""", osisID: '"&amp;B140&amp;"', paratext: "&amp;IF(C140="","null","'"&amp;C140&amp;"'")&amp;", groups: "&amp;E140&amp;", aliases: "&amp;H140&amp;" },"</f>
@@ -6812,7 +6812,7 @@
         <v>403</v>
       </c>
       <c r="E141" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>405</v>
@@ -6822,7 +6822,7 @@
         <v>['IgnRom']</v>
       </c>
       <c r="H141" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I141" t="str">
         <f>"{ name: """&amp;A141&amp;""", osisID: '"&amp;B141&amp;"', paratext: "&amp;IF(C141="","null","'"&amp;C141&amp;"'")&amp;", groups: "&amp;E141&amp;", aliases: "&amp;H141&amp;" },"</f>
@@ -6840,7 +6840,7 @@
         <v>403</v>
       </c>
       <c r="E142" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>405</v>
@@ -6850,7 +6850,7 @@
         <v>['IgnPhld']</v>
       </c>
       <c r="H142" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I142" t="str">
         <f>"{ name: """&amp;A142&amp;""", osisID: '"&amp;B142&amp;"', paratext: "&amp;IF(C142="","null","'"&amp;C142&amp;"'")&amp;", groups: "&amp;E142&amp;", aliases: "&amp;H142&amp;" },"</f>
@@ -6868,7 +6868,7 @@
         <v>403</v>
       </c>
       <c r="E143" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>405</v>
@@ -6878,7 +6878,7 @@
         <v>['IgnSmyrn']</v>
       </c>
       <c r="H143" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I143" t="str">
         <f>"{ name: """&amp;A143&amp;""", osisID: '"&amp;B143&amp;"', paratext: "&amp;IF(C143="","null","'"&amp;C143&amp;"'")&amp;", groups: "&amp;E143&amp;", aliases: "&amp;H143&amp;" },"</f>
@@ -6896,7 +6896,7 @@
         <v>403</v>
       </c>
       <c r="E144" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>405</v>
@@ -6906,7 +6906,7 @@
         <v>['IgnPol']</v>
       </c>
       <c r="H144" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="I144" t="str">
         <f>"{ name: """&amp;A144&amp;""", osisID: '"&amp;B144&amp;"', paratext: "&amp;IF(C144="","null","'"&amp;C144&amp;"'")&amp;", groups: "&amp;E144&amp;", aliases: "&amp;H144&amp;" },"</f>
@@ -6924,7 +6924,7 @@
         <v>403</v>
       </c>
       <c r="E145" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>405</v>
@@ -6934,7 +6934,7 @@
         <v>['PolPhil']</v>
       </c>
       <c r="H145" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="I145" t="str">
         <f>"{ name: """&amp;A145&amp;""", osisID: '"&amp;B145&amp;"', paratext: "&amp;IF(C145="","null","'"&amp;C145&amp;"'")&amp;", groups: "&amp;E145&amp;", aliases: "&amp;H145&amp;" },"</f>
@@ -6952,7 +6952,7 @@
         <v>403</v>
       </c>
       <c r="E146" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>405</v>
@@ -6962,7 +6962,7 @@
         <v>['MartPol']</v>
       </c>
       <c r="H146" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I146" t="str">
         <f>"{ name: """&amp;A146&amp;""", osisID: '"&amp;B146&amp;"', paratext: "&amp;IF(C146="","null","'"&amp;C146&amp;"'")&amp;", groups: "&amp;E146&amp;", aliases: "&amp;H146&amp;" },"</f>
@@ -6983,7 +6983,7 @@
         <v>403</v>
       </c>
       <c r="E147" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>405</v>
@@ -6993,7 +6993,7 @@
         <v>['Did','DID']</v>
       </c>
       <c r="H147" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I147" t="str">
         <f>"{ name: """&amp;A147&amp;""", osisID: '"&amp;B147&amp;"', paratext: "&amp;IF(C147="","null","'"&amp;C147&amp;"'")&amp;", groups: "&amp;E147&amp;", aliases: "&amp;H147&amp;" },"</f>
@@ -7014,7 +7014,7 @@
         <v>403</v>
       </c>
       <c r="E148" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>405</v>
@@ -7024,7 +7024,7 @@
         <v>['Barn','LBA']</v>
       </c>
       <c r="H148" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="I148" t="str">
         <f>"{ name: """&amp;A148&amp;""", osisID: '"&amp;B148&amp;"', paratext: "&amp;IF(C148="","null","'"&amp;C148&amp;"'")&amp;", groups: "&amp;E148&amp;", aliases: "&amp;H148&amp;" },"</f>
@@ -7045,7 +7045,7 @@
         <v>403</v>
       </c>
       <c r="E149" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>405</v>
@@ -7055,7 +7055,7 @@
         <v>['Herm','SHE']</v>
       </c>
       <c r="H149" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I149" t="str">
         <f>"{ name: """&amp;A149&amp;""", osisID: '"&amp;B149&amp;"', paratext: "&amp;IF(C149="","null","'"&amp;C149&amp;"'")&amp;", groups: "&amp;E149&amp;", aliases: "&amp;H149&amp;" },"</f>
@@ -7073,7 +7073,7 @@
         <v>403</v>
       </c>
       <c r="E150" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>405</v>
@@ -7083,7 +7083,7 @@
         <v>['Herm.Mand']</v>
       </c>
       <c r="H150" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="I150" t="str">
         <f>"{ name: """&amp;A150&amp;""", osisID: '"&amp;B150&amp;"', paratext: "&amp;IF(C150="","null","'"&amp;C150&amp;"'")&amp;", groups: "&amp;E150&amp;", aliases: "&amp;H150&amp;" },"</f>
@@ -7101,7 +7101,7 @@
         <v>403</v>
       </c>
       <c r="E151" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>405</v>
@@ -7111,7 +7111,7 @@
         <v>['Herm.Sim']</v>
       </c>
       <c r="H151" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="I151" t="str">
         <f>"{ name: """&amp;A151&amp;""", osisID: '"&amp;B151&amp;"', paratext: "&amp;IF(C151="","null","'"&amp;C151&amp;"'")&amp;", groups: "&amp;E151&amp;", aliases: "&amp;H151&amp;" },"</f>
@@ -7129,7 +7129,7 @@
         <v>403</v>
       </c>
       <c r="E152" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>405</v>
@@ -7139,7 +7139,7 @@
         <v>['Herm.Vis']</v>
       </c>
       <c r="H152" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="I152" t="str">
         <f>"{ name: """&amp;A152&amp;""", osisID: '"&amp;B152&amp;"', paratext: "&amp;IF(C152="","null","'"&amp;C152&amp;"'")&amp;", groups: "&amp;E152&amp;", aliases: "&amp;H152&amp;" },"</f>
@@ -7157,7 +7157,7 @@
         <v>403</v>
       </c>
       <c r="E153" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>405</v>
@@ -7167,7 +7167,7 @@
         <v>['Diogn']</v>
       </c>
       <c r="H153" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="I153" t="str">
         <f>"{ name: """&amp;A153&amp;""", osisID: '"&amp;B153&amp;"', paratext: "&amp;IF(C153="","null","'"&amp;C153&amp;"'")&amp;", groups: "&amp;E153&amp;", aliases: "&amp;H153&amp;" },"</f>
@@ -7185,7 +7185,7 @@
         <v>403</v>
       </c>
       <c r="E154" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>405</v>
@@ -7195,7 +7195,7 @@
         <v>['AposCreed']</v>
       </c>
       <c r="H154" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="I154" t="str">
         <f>"{ name: """&amp;A154&amp;""", osisID: '"&amp;B154&amp;"', paratext: "&amp;IF(C154="","null","'"&amp;C154&amp;"'")&amp;", groups: "&amp;E154&amp;", aliases: "&amp;H154&amp;" },"</f>
@@ -7213,7 +7213,7 @@
         <v>403</v>
       </c>
       <c r="E155" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>405</v>
@@ -7223,7 +7223,7 @@
         <v>['PapFrag']</v>
       </c>
       <c r="H155" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="I155" t="str">
         <f>"{ name: """&amp;A155&amp;""", osisID: '"&amp;B155&amp;"', paratext: "&amp;IF(C155="","null","'"&amp;C155&amp;"'")&amp;", groups: "&amp;E155&amp;", aliases: "&amp;H155&amp;" },"</f>
@@ -7241,7 +7241,7 @@
         <v>403</v>
       </c>
       <c r="E156" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>405</v>
@@ -7251,7 +7251,7 @@
         <v>['RelElders']</v>
       </c>
       <c r="H156" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="I156" t="str">
         <f>"{ name: """&amp;A156&amp;""", osisID: '"&amp;B156&amp;"', paratext: "&amp;IF(C156="","null","'"&amp;C156&amp;"'")&amp;", groups: "&amp;E156&amp;", aliases: "&amp;H156&amp;" },"</f>
@@ -7269,7 +7269,7 @@
         <v>403</v>
       </c>
       <c r="E157" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>405</v>
@@ -7279,7 +7279,7 @@
         <v>['QuadFrag']</v>
       </c>
       <c r="H157" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I157" t="str">
         <f>"{ name: """&amp;A157&amp;""", osisID: '"&amp;B157&amp;"', paratext: "&amp;IF(C157="","null","'"&amp;C157&amp;"'")&amp;", groups: "&amp;E157&amp;", aliases: "&amp;H157&amp;" },"</f>
@@ -7297,7 +7297,7 @@
         <v>405</v>
       </c>
       <c r="E158" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>405</v>
@@ -7307,7 +7307,7 @@
         <v>['TatDiat']</v>
       </c>
       <c r="H158" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I158" t="str">
         <f>"{ name: """&amp;A158&amp;""", osisID: '"&amp;B158&amp;"', paratext: "&amp;IF(C158="","null","'"&amp;C158&amp;"'")&amp;", groups: "&amp;E158&amp;", aliases: "&amp;H158&amp;" },"</f>
@@ -7328,7 +7328,7 @@
         <v>405</v>
       </c>
       <c r="E159" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>405</v>
@@ -7338,7 +7338,7 @@
         <v>['PsMet','PSB']</v>
       </c>
       <c r="H159" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="I159" t="str">
         <f>"{ name: """&amp;A159&amp;""", osisID: '"&amp;B159&amp;"', paratext: "&amp;IF(C159="","null","'"&amp;C159&amp;"'")&amp;", groups: "&amp;E159&amp;", aliases: "&amp;H159&amp;" },"</f>
@@ -7353,20 +7353,20 @@
         <v>442</v>
       </c>
       <c r="D160" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E160" t="s">
+        <v>527</v>
+      </c>
+      <c r="F160" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E160" t="s">
-        <v>531</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G160" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['1Ne']</v>
       </c>
       <c r="H160" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I160" t="str">
         <f>"{ name: """&amp;A160&amp;""", osisID: '"&amp;B160&amp;"', paratext: "&amp;IF(C160="","null","'"&amp;C160&amp;"'")&amp;", groups: "&amp;E160&amp;", aliases: "&amp;H160&amp;" },"</f>
@@ -7381,20 +7381,20 @@
         <v>444</v>
       </c>
       <c r="D161" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E161" t="s">
+        <v>527</v>
+      </c>
+      <c r="F161" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E161" t="s">
-        <v>531</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G161" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['2Ne']</v>
       </c>
       <c r="H161" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I161" t="str">
         <f>"{ name: """&amp;A161&amp;""", osisID: '"&amp;B161&amp;"', paratext: "&amp;IF(C161="","null","'"&amp;C161&amp;"'")&amp;", groups: "&amp;E161&amp;", aliases: "&amp;H161&amp;" },"</f>
@@ -7409,20 +7409,20 @@
         <v>446</v>
       </c>
       <c r="D162" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E162" t="s">
+        <v>527</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E162" t="s">
-        <v>531</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G162" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Jac']</v>
       </c>
       <c r="H162" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I162" t="str">
         <f>"{ name: """&amp;A162&amp;""", osisID: '"&amp;B162&amp;"', paratext: "&amp;IF(C162="","null","'"&amp;C162&amp;"'")&amp;", groups: "&amp;E162&amp;", aliases: "&amp;H162&amp;" },"</f>
@@ -7437,20 +7437,20 @@
         <v>447</v>
       </c>
       <c r="D163" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E163" t="s">
+        <v>527</v>
+      </c>
+      <c r="F163" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E163" t="s">
-        <v>531</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G163" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Enos']</v>
       </c>
       <c r="H163" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I163" t="str">
         <f>"{ name: """&amp;A163&amp;""", osisID: '"&amp;B163&amp;"', paratext: "&amp;IF(C163="","null","'"&amp;C163&amp;"'")&amp;", groups: "&amp;E163&amp;", aliases: "&amp;H163&amp;" },"</f>
@@ -7459,54 +7459,54 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>448</v>
+        <v>684</v>
       </c>
       <c r="B164" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D164" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E164" t="s">
+        <v>527</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E164" t="s">
-        <v>531</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G164" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Jar']</v>
       </c>
       <c r="H164" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I164" t="str">
         <f>"{ name: """&amp;A164&amp;""", osisID: '"&amp;B164&amp;"', paratext: "&amp;IF(C164="","null","'"&amp;C164&amp;"'")&amp;", groups: "&amp;E164&amp;", aliases: "&amp;H164&amp;" },"</f>
-        <v>{ name: "Jerom", osisID: 'Jar', paratext: null, groups: ['Book of Mormon', 'Small Plates of Nephi', 'LDS'], aliases: ['Jar'] },</v>
+        <v>{ name: "Jarom", osisID: 'Jar', paratext: null, groups: ['Book of Mormon', 'Small Plates of Nephi', 'LDS'], aliases: ['Jar'] },</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B165" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D165" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E165" t="s">
+        <v>527</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E165" t="s">
-        <v>531</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G165" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Omni']</v>
       </c>
       <c r="H165" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I165" t="str">
         <f>"{ name: """&amp;A165&amp;""", osisID: '"&amp;B165&amp;"', paratext: "&amp;IF(C165="","null","'"&amp;C165&amp;"'")&amp;", groups: "&amp;E165&amp;", aliases: "&amp;H165&amp;" },"</f>
@@ -7515,26 +7515,26 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>449</v>
+      </c>
+      <c r="B166" t="s">
         <v>450</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D166" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="E166" t="s">
+        <v>528</v>
+      </c>
+      <c r="F166" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E166" t="s">
-        <v>532</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G166" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['WoM']</v>
       </c>
       <c r="H166" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I166" t="str">
         <f>"{ name: """&amp;A166&amp;""", osisID: '"&amp;B166&amp;"', paratext: "&amp;IF(C166="","null","'"&amp;C166&amp;"'")&amp;", groups: "&amp;E166&amp;", aliases: "&amp;H166&amp;" },"</f>
@@ -7543,26 +7543,26 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B167" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D167" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E167" t="s">
+        <v>529</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E167" t="s">
-        <v>533</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G167" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Mosi']</v>
       </c>
       <c r="H167" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I167" t="str">
         <f>"{ name: """&amp;A167&amp;""", osisID: '"&amp;B167&amp;"', paratext: "&amp;IF(C167="","null","'"&amp;C167&amp;"'")&amp;", groups: "&amp;E167&amp;", aliases: "&amp;H167&amp;" },"</f>
@@ -7571,26 +7571,26 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B168" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D168" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E168" t="s">
+        <v>529</v>
+      </c>
+      <c r="F168" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E168" t="s">
-        <v>533</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G168" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Alma']</v>
       </c>
       <c r="H168" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I168" t="str">
         <f>"{ name: """&amp;A168&amp;""", osisID: '"&amp;B168&amp;"', paratext: "&amp;IF(C168="","null","'"&amp;C168&amp;"'")&amp;", groups: "&amp;E168&amp;", aliases: "&amp;H168&amp;" },"</f>
@@ -7599,26 +7599,26 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B169" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D169" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E169" t="s">
+        <v>529</v>
+      </c>
+      <c r="F169" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E169" t="s">
-        <v>533</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G169" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Hel']</v>
       </c>
       <c r="H169" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I169" t="str">
         <f>"{ name: """&amp;A169&amp;""", osisID: '"&amp;B169&amp;"', paratext: "&amp;IF(C169="","null","'"&amp;C169&amp;"'")&amp;", groups: "&amp;E169&amp;", aliases: "&amp;H169&amp;" },"</f>
@@ -7627,26 +7627,26 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>462</v>
+      </c>
+      <c r="B170" t="s">
         <v>463</v>
       </c>
-      <c r="B170" t="s">
-        <v>464</v>
-      </c>
       <c r="D170" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E170" t="s">
+        <v>529</v>
+      </c>
+      <c r="F170" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E170" t="s">
-        <v>533</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G170" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['3Ne']</v>
       </c>
       <c r="H170" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I170" t="str">
         <f>"{ name: """&amp;A170&amp;""", osisID: '"&amp;B170&amp;"', paratext: "&amp;IF(C170="","null","'"&amp;C170&amp;"'")&amp;", groups: "&amp;E170&amp;", aliases: "&amp;H170&amp;" },"</f>
@@ -7655,26 +7655,26 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>464</v>
+      </c>
+      <c r="B171" t="s">
         <v>465</v>
       </c>
-      <c r="B171" t="s">
-        <v>466</v>
-      </c>
       <c r="D171" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E171" t="s">
+        <v>529</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E171" t="s">
-        <v>533</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G171" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['4Ne']</v>
       </c>
       <c r="H171" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I171" t="str">
         <f>"{ name: """&amp;A171&amp;""", osisID: '"&amp;B171&amp;"', paratext: "&amp;IF(C171="","null","'"&amp;C171&amp;"'")&amp;", groups: "&amp;E171&amp;", aliases: "&amp;H171&amp;" },"</f>
@@ -7683,26 +7683,26 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>466</v>
+      </c>
+      <c r="B172" t="s">
         <v>467</v>
       </c>
-      <c r="B172" t="s">
-        <v>468</v>
-      </c>
       <c r="D172" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E172" t="s">
+        <v>529</v>
+      </c>
+      <c r="F172" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E172" t="s">
-        <v>533</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G172" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Morm']</v>
       </c>
       <c r="H172" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I172" t="str">
         <f>"{ name: """&amp;A172&amp;""", osisID: '"&amp;B172&amp;"', paratext: "&amp;IF(C172="","null","'"&amp;C172&amp;"'")&amp;", groups: "&amp;E172&amp;", aliases: "&amp;H172&amp;" },"</f>
@@ -7711,26 +7711,26 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B173" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D173" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E173" t="s">
+        <v>529</v>
+      </c>
+      <c r="F173" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E173" t="s">
-        <v>533</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G173" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Eth']</v>
       </c>
       <c r="H173" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I173" t="str">
         <f>"{ name: """&amp;A173&amp;""", osisID: '"&amp;B173&amp;"', paratext: "&amp;IF(C173="","null","'"&amp;C173&amp;"'")&amp;", groups: "&amp;E173&amp;", aliases: "&amp;H173&amp;" },"</f>
@@ -7739,26 +7739,26 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B174" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D174" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E174" t="s">
+        <v>529</v>
+      </c>
+      <c r="F174" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="E174" t="s">
-        <v>533</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G174" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Moro']</v>
       </c>
       <c r="H174" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I174" t="str">
         <f>"{ name: """&amp;A174&amp;""", osisID: '"&amp;B174&amp;"', paratext: "&amp;IF(C174="","null","'"&amp;C174&amp;"'")&amp;", groups: "&amp;E174&amp;", aliases: "&amp;H174&amp;" },"</f>
@@ -7767,26 +7767,26 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B175" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E175" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G175" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Mos']</v>
       </c>
       <c r="H175" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I175" t="str">
         <f>"{ name: """&amp;A175&amp;""", osisID: '"&amp;B175&amp;"', paratext: "&amp;IF(C175="","null","'"&amp;C175&amp;"'")&amp;", groups: "&amp;E175&amp;", aliases: "&amp;H175&amp;" },"</f>
@@ -7795,26 +7795,26 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B176" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E176" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G176" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['Abr']</v>
       </c>
       <c r="H176" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I176" t="str">
         <f>"{ name: """&amp;A176&amp;""", osisID: '"&amp;B176&amp;"', paratext: "&amp;IF(C176="","null","'"&amp;C176&amp;"'")&amp;", groups: "&amp;E176&amp;", aliases: "&amp;H176&amp;" },"</f>
@@ -7823,26 +7823,26 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>505</v>
+      </c>
+      <c r="B177" t="s">
         <v>507</v>
       </c>
-      <c r="B177" t="s">
-        <v>509</v>
-      </c>
       <c r="D177" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E177" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G177" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['AofF']</v>
       </c>
       <c r="H177" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I177" t="str">
         <f>"{ name: """&amp;A177&amp;""", osisID: '"&amp;B177&amp;"', paratext: "&amp;IF(C177="","null","'"&amp;C177&amp;"'")&amp;", groups: "&amp;E177&amp;", aliases: "&amp;H177&amp;" },"</f>
@@ -7851,82 +7851,82 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B178" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E178" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G178" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['JSH']</v>
       </c>
       <c r="H178" t="s">
-        <v>511</v>
+        <v>686</v>
       </c>
       <c r="I178" t="str">
         <f>"{ name: """&amp;A178&amp;""", osisID: '"&amp;B178&amp;"', paratext: "&amp;IF(C178="","null","'"&amp;C178&amp;"'")&amp;", groups: "&amp;E178&amp;", aliases: "&amp;H178&amp;" },"</f>
-        <v>{ name: "Joseph Smith History", osisID: 'JSH', paratext: null, groups: ['Pearl of Great Price', 'Inspired Translation', 'Joseph Smith Translation', 'JST', 'Joseph Smith', 'LDS'], aliases: ['JSH'] },</v>
+        <v>{ name: "Joseph Smith History", osisID: 'JSH', paratext: null, groups: ['Pearl of Great Price', 'Inspired Translation', 'Joseph Smith Translation', 'JST', 'Joseph Smith', 'LDS'], aliases: ['JSH', 'Joseph Smith--History'] },</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B179" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E179" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G179" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['JSM']</v>
       </c>
       <c r="H179" t="s">
-        <v>514</v>
+        <v>685</v>
       </c>
       <c r="I179" t="str">
         <f>"{ name: """&amp;A179&amp;""", osisID: '"&amp;B179&amp;"', paratext: "&amp;IF(C179="","null","'"&amp;C179&amp;"'")&amp;", groups: "&amp;E179&amp;", aliases: "&amp;H179&amp;" },"</f>
-        <v>{ name: "Joseph Smith Matthew", osisID: 'JSM', paratext: null, groups: ['Pearl of Great Price', 'Inspired Translation', 'Joseph Smith Translation', 'JST', 'Joseph Smith', 'LDS'], aliases: ['JSM'] },</v>
+        <v>{ name: "Joseph Smith Matthew", osisID: 'JSM', paratext: null, groups: ['Pearl of Great Price', 'Inspired Translation', 'Joseph Smith Translation', 'JST', 'Joseph Smith', 'LDS'], aliases: ['JSM','Joseph Smith--Matthew'] },</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B180" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E180" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G180" s="5" t="str">
         <f t="shared" si="2"/>
         <v>['D&amp;C']</v>
       </c>
       <c r="H180" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I180" t="str">
         <f>"{ name: """&amp;A180&amp;""", osisID: '"&amp;B180&amp;"', paratext: "&amp;IF(C180="","null","'"&amp;C180&amp;"'")&amp;", groups: "&amp;E180&amp;", aliases: "&amp;H180&amp;" },"</f>

--- a/data/_metadata.xlsx
+++ b/data/_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksnyder/Sites/public-domain-books/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EFC843-0058-CF48-801A-8203B7696570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758D1EB-A43B-FF45-8BD2-FE65A0F59D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="520" windowWidth="29500" windowHeight="25720" xr2:uid="{948352A4-4516-F447-8F65-D2A52CDFF619}"/>
+    <workbookView xWindow="14100" yWindow="520" windowWidth="27260" windowHeight="25720" xr2:uid="{948352A4-4516-F447-8F65-D2A52CDFF619}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1916,9 +1916,6 @@
     <t>['BelTh','BLT']</t>
   </si>
   <si>
-    <t>['EpLao','LAO']</t>
-  </si>
-  <si>
     <t>['5Ezra','5EZ']</t>
   </si>
   <si>
@@ -2100,6 +2097,9 @@
   </si>
   <si>
     <t>['JSH', 'Joseph Smith--History']</t>
+  </si>
+  <si>
+    <t>['EpLao','LAO','Laodiceans']</t>
   </si>
 </sst>
 </file>
@@ -2146,12 +2146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2167,7 +2173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2176,6 +2182,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2513,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2457BBF2-065A-6B4B-8450-DD145766C676}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2558,2110 +2567,2110 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="7" t="str">
         <f>SUBSTITUTE("['"&amp;B2&amp;"','"&amp;C2&amp;"']",",''","")</f>
         <v>['Gen','GEN']</v>
       </c>
-      <c r="H2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I2" t="str">
+      <c r="H2" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="I2" s="6" t="str">
         <f>"{ name: """&amp;A2&amp;""", osisID: '"&amp;B2&amp;"', paratext: "&amp;IF(C2="","null","'"&amp;C2&amp;"'")&amp;", groups: "&amp;E2&amp;", aliases: "&amp;H2&amp;" },"</f>
         <v>{ name: "Genesis", osisID: 'Gen', paratext: 'GEN', groups: ['Old Testament', 'Bible', 'Pentatuech', 'Torah'], aliases: ['Gen','GEN','The First Book of Moses called Genesis'] },</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="7" t="str">
         <f t="shared" ref="G3:G66" si="0">SUBSTITUTE("['"&amp;B3&amp;"','"&amp;C3&amp;"']",",''","")</f>
         <v>['Exod','EXO']</v>
       </c>
-      <c r="H3" t="s">
-        <v>679</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="H3" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="I3" s="6" t="str">
         <f>"{ name: """&amp;A3&amp;""", osisID: '"&amp;B3&amp;"', paratext: "&amp;IF(C3="","null","'"&amp;C3&amp;"'")&amp;", groups: "&amp;E3&amp;", aliases: "&amp;H3&amp;" },"</f>
         <v>{ name: "Exodus", osisID: 'Exod', paratext: 'EXO', groups: ['Old Testament', 'Bible', 'Pentatuech', 'Torah'], aliases: ['Exod','EXO','The Second Book of Moses called Exodus'] },</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Lev','LEV']</v>
       </c>
-      <c r="H4" t="s">
-        <v>680</v>
-      </c>
-      <c r="I4" t="str">
+      <c r="H4" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="I4" s="6" t="str">
         <f>"{ name: """&amp;A4&amp;""", osisID: '"&amp;B4&amp;"', paratext: "&amp;IF(C4="","null","'"&amp;C4&amp;"'")&amp;", groups: "&amp;E4&amp;", aliases: "&amp;H4&amp;" },"</f>
         <v>{ name: "Leviticus", osisID: 'Lev', paratext: 'LEV', groups: ['Old Testament', 'Bible', 'Pentatuech', 'Torah'], aliases: ['Lev','LEV','The Third Book of Moses called Leviticus'] },</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Num','NUM']</v>
       </c>
-      <c r="H5" t="s">
-        <v>681</v>
-      </c>
-      <c r="I5" t="str">
+      <c r="H5" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="I5" s="6" t="str">
         <f>"{ name: """&amp;A5&amp;""", osisID: '"&amp;B5&amp;"', paratext: "&amp;IF(C5="","null","'"&amp;C5&amp;"'")&amp;", groups: "&amp;E5&amp;", aliases: "&amp;H5&amp;" },"</f>
         <v>{ name: "Numbers", osisID: 'Num', paratext: 'NUM', groups: ['Old Testament', 'Bible', 'Pentatuech', 'Torah'], aliases: ['Num','NUM','The Fourth Book of Moses called Numbers'] },</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Deut','DEU']</v>
       </c>
-      <c r="H6" t="s">
-        <v>682</v>
-      </c>
-      <c r="I6" t="str">
+      <c r="H6" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="I6" s="6" t="str">
         <f>"{ name: """&amp;A6&amp;""", osisID: '"&amp;B6&amp;"', paratext: "&amp;IF(C6="","null","'"&amp;C6&amp;"'")&amp;", groups: "&amp;E6&amp;", aliases: "&amp;H6&amp;" },"</f>
         <v>{ name: "Deuteronomy", osisID: 'Deut', paratext: 'DEU', groups: ['Old Testament', 'Bible'], aliases: ['Deut','DEU','The Fifth Book of Moses called Deuteronomy'] },</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Josh','JOS']</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="6" t="str">
         <f>"{ name: """&amp;A7&amp;""", osisID: '"&amp;B7&amp;"', paratext: "&amp;IF(C7="","null","'"&amp;C7&amp;"'")&amp;", groups: "&amp;E7&amp;", aliases: "&amp;H7&amp;" },"</f>
         <v>{ name: "Joshua", osisID: 'Josh', paratext: 'JOS', groups: ['Old Testament', 'Bible'], aliases: ['Josh','JOS'] },</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Judg','JDG']</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="6" t="str">
         <f>"{ name: """&amp;A8&amp;""", osisID: '"&amp;B8&amp;"', paratext: "&amp;IF(C8="","null","'"&amp;C8&amp;"'")&amp;", groups: "&amp;E8&amp;", aliases: "&amp;H8&amp;" },"</f>
         <v>{ name: "Judges", osisID: 'Judg', paratext: 'JDG', groups: ['Old Testament', 'Bible'], aliases: ['Judg','JDG'] },</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Ruth','RUT']</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="6" t="str">
         <f>"{ name: """&amp;A9&amp;""", osisID: '"&amp;B9&amp;"', paratext: "&amp;IF(C9="","null","'"&amp;C9&amp;"'")&amp;", groups: "&amp;E9&amp;", aliases: "&amp;H9&amp;" },"</f>
         <v>{ name: "Ruth", osisID: 'Ruth', paratext: 'RUT', groups: ['Old Testament', 'Bible'], aliases: ['Ruth','RUT'] },</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['1Sam','1SA']</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="6" t="str">
         <f>"{ name: """&amp;A10&amp;""", osisID: '"&amp;B10&amp;"', paratext: "&amp;IF(C10="","null","'"&amp;C10&amp;"'")&amp;", groups: "&amp;E10&amp;", aliases: "&amp;H10&amp;" },"</f>
         <v>{ name: "1 Samuel", osisID: '1Sam', paratext: '1SA', groups: ['Old Testament', 'Bible'], aliases: ['1Sam','1SA'] },</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['2Sam','2SA']</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="6" t="str">
         <f>"{ name: """&amp;A11&amp;""", osisID: '"&amp;B11&amp;"', paratext: "&amp;IF(C11="","null","'"&amp;C11&amp;"'")&amp;", groups: "&amp;E11&amp;", aliases: "&amp;H11&amp;" },"</f>
         <v>{ name: "2 Samuel", osisID: '2Sam', paratext: '2SA', groups: ['Old Testament', 'Bible'], aliases: ['2Sam','2SA'] },</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['1Kgs','1KI']</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="6" t="str">
         <f>"{ name: """&amp;A12&amp;""", osisID: '"&amp;B12&amp;"', paratext: "&amp;IF(C12="","null","'"&amp;C12&amp;"'")&amp;", groups: "&amp;E12&amp;", aliases: "&amp;H12&amp;" },"</f>
         <v>{ name: "1 Kings", osisID: '1Kgs', paratext: '1KI', groups: ['Old Testament', 'Bible', 'Kings'], aliases: ['1Kgs','1KI'] },</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['2Kgs','2KI']</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="6" t="str">
         <f>"{ name: """&amp;A13&amp;""", osisID: '"&amp;B13&amp;"', paratext: "&amp;IF(C13="","null","'"&amp;C13&amp;"'")&amp;", groups: "&amp;E13&amp;", aliases: "&amp;H13&amp;" },"</f>
         <v>{ name: "2 Kings", osisID: '2Kgs', paratext: '2KI', groups: ['Old Testament', 'Bible', 'Kings'], aliases: ['2Kgs','2KI'] },</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['1Chr','1CH']</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="6" t="str">
         <f>"{ name: """&amp;A14&amp;""", osisID: '"&amp;B14&amp;"', paratext: "&amp;IF(C14="","null","'"&amp;C14&amp;"'")&amp;", groups: "&amp;E14&amp;", aliases: "&amp;H14&amp;" },"</f>
         <v>{ name: "1 Chronicles", osisID: '1Chr', paratext: '1CH', groups: ['Old Testament', 'Bible', 'Persian Period'], aliases: ['1Chr','1CH'] },</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['2Chr','2CH']</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="6" t="str">
         <f>"{ name: """&amp;A15&amp;""", osisID: '"&amp;B15&amp;"', paratext: "&amp;IF(C15="","null","'"&amp;C15&amp;"'")&amp;", groups: "&amp;E15&amp;", aliases: "&amp;H15&amp;" },"</f>
         <v>{ name: "2 Chronicles", osisID: '2Chr', paratext: '2CH', groups: ['Old Testament', 'Bible', 'Persian Period'], aliases: ['2Chr','2CH'] },</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Ezra','EZR']</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="6" t="str">
         <f>"{ name: """&amp;A16&amp;""", osisID: '"&amp;B16&amp;"', paratext: "&amp;IF(C16="","null","'"&amp;C16&amp;"'")&amp;", groups: "&amp;E16&amp;", aliases: "&amp;H16&amp;" },"</f>
         <v>{ name: "Ezra", osisID: 'Ezra', paratext: 'EZR', groups: ['Old Testament', 'Bible', 'Persian Period'], aliases: ['Ezra','EZR'] },</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Neh','NEH']</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="6" t="str">
         <f>"{ name: """&amp;A17&amp;""", osisID: '"&amp;B17&amp;"', paratext: "&amp;IF(C17="","null","'"&amp;C17&amp;"'")&amp;", groups: "&amp;E17&amp;", aliases: "&amp;H17&amp;" },"</f>
         <v>{ name: "Nehemiah", osisID: 'Neh', paratext: 'NEH', groups: ['Old Testament', 'Bible', 'Persian Period'], aliases: ['Neh','NEH'] },</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Esth','EST']</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="6" t="str">
         <f>"{ name: """&amp;A18&amp;""", osisID: '"&amp;B18&amp;"', paratext: "&amp;IF(C18="","null","'"&amp;C18&amp;"'")&amp;", groups: "&amp;E18&amp;", aliases: "&amp;H18&amp;" },"</f>
         <v>{ name: "Esther", osisID: 'Esth', paratext: 'EST', groups: ['Old Testament', 'Bible'], aliases: ['Esth','EST'] },</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Job','JOB']</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="6" t="str">
         <f>"{ name: """&amp;A19&amp;""", osisID: '"&amp;B19&amp;"', paratext: "&amp;IF(C19="","null","'"&amp;C19&amp;"'")&amp;", groups: "&amp;E19&amp;", aliases: "&amp;H19&amp;" },"</f>
         <v>{ name: "Job", osisID: 'Job', paratext: 'JOB', groups: ['Old Testament', 'Bible'], aliases: ['Job','JOB'] },</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="G20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Ps','PSA']</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="6" t="str">
         <f>"{ name: """&amp;A20&amp;""", osisID: '"&amp;B20&amp;"', paratext: "&amp;IF(C20="","null","'"&amp;C20&amp;"'")&amp;", groups: "&amp;E20&amp;", aliases: "&amp;H20&amp;" },"</f>
         <v>{ name: "Psalms", osisID: 'Ps', paratext: 'PSA', groups: ['Old Testament', 'Bible'], aliases: ['Ps','PSA'] },</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G21" s="5" t="str">
+      <c r="G21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Prov','PRO']</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="6" t="str">
         <f>"{ name: """&amp;A21&amp;""", osisID: '"&amp;B21&amp;"', paratext: "&amp;IF(C21="","null","'"&amp;C21&amp;"'")&amp;", groups: "&amp;E21&amp;", aliases: "&amp;H21&amp;" },"</f>
         <v>{ name: "Proverbs", osisID: 'Prov', paratext: 'PRO', groups: ['Old Testament', 'Bible'], aliases: ['Prov','PRO'] },</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Eccl','ECC']</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="6" t="str">
         <f>"{ name: """&amp;A22&amp;""", osisID: '"&amp;B22&amp;"', paratext: "&amp;IF(C22="","null","'"&amp;C22&amp;"'")&amp;", groups: "&amp;E22&amp;", aliases: "&amp;H22&amp;" },"</f>
         <v>{ name: "Ecclesiastes", osisID: 'Eccl', paratext: 'ECC', groups: ['Old Testament', 'Bible'], aliases: ['Qohelet','Eccl','ECC'] },</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Song','SNG']</v>
       </c>
-      <c r="H23" t="s">
-        <v>683</v>
-      </c>
-      <c r="I23" t="str">
+      <c r="H23" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="I23" s="6" t="str">
         <f>"{ name: """&amp;A23&amp;""", osisID: '"&amp;B23&amp;"', paratext: "&amp;IF(C23="","null","'"&amp;C23&amp;"'")&amp;", groups: "&amp;E23&amp;", aliases: "&amp;H23&amp;" },"</f>
         <v>{ name: "Song of Solomon", osisID: 'Song', paratext: 'SNG', groups: ['Old Testament', 'Bible'], aliases: ['Canticle of Canticles','Song','SNG',"Solomon's Song"] },</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Isa','ISA']</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="6" t="str">
         <f>"{ name: """&amp;A24&amp;""", osisID: '"&amp;B24&amp;"', paratext: "&amp;IF(C24="","null","'"&amp;C24&amp;"'")&amp;", groups: "&amp;E24&amp;", aliases: "&amp;H24&amp;" },"</f>
         <v>{ name: "Isaiah", osisID: 'Isa', paratext: 'ISA', groups: ['Old Testament', 'Bible'], aliases: ['Isa','ISA'] },</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="G25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Jer','JER']</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25" s="6" t="str">
         <f>"{ name: """&amp;A25&amp;""", osisID: '"&amp;B25&amp;"', paratext: "&amp;IF(C25="","null","'"&amp;C25&amp;"'")&amp;", groups: "&amp;E25&amp;", aliases: "&amp;H25&amp;" },"</f>
         <v>{ name: "Jeremiah", osisID: 'Jer', paratext: 'JER', groups: ['Old Testament', 'Bible'], aliases: ['Jer','JER'] },</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G26" s="5" t="str">
+      <c r="G26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Lam','LAM']</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="6" t="str">
         <f>"{ name: """&amp;A26&amp;""", osisID: '"&amp;B26&amp;"', paratext: "&amp;IF(C26="","null","'"&amp;C26&amp;"'")&amp;", groups: "&amp;E26&amp;", aliases: "&amp;H26&amp;" },"</f>
         <v>{ name: "Lamentations", osisID: 'Lam', paratext: 'LAM', groups: ['Old Testament', 'Bible'], aliases: ['Lam','LAM'] },</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G27" s="5" t="str">
+      <c r="G27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Ezek','EZK']</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27" s="6" t="str">
         <f>"{ name: """&amp;A27&amp;""", osisID: '"&amp;B27&amp;"', paratext: "&amp;IF(C27="","null","'"&amp;C27&amp;"'")&amp;", groups: "&amp;E27&amp;", aliases: "&amp;H27&amp;" },"</f>
         <v>{ name: "Ezekiel", osisID: 'Ezek', paratext: 'EZK', groups: ['Old Testament', 'Bible'], aliases: ['Ezek','EZK'] },</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G28" s="5" t="str">
+      <c r="G28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Dan','DAN']</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I28" s="6" t="str">
         <f>"{ name: """&amp;A28&amp;""", osisID: '"&amp;B28&amp;"', paratext: "&amp;IF(C28="","null","'"&amp;C28&amp;"'")&amp;", groups: "&amp;E28&amp;", aliases: "&amp;H28&amp;" },"</f>
         <v>{ name: "Daniel", osisID: 'Dan', paratext: 'DAN', groups: ['Old Testament', 'Bible'], aliases: ['Dan','DAN'] },</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G29" s="5" t="str">
+      <c r="G29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Hos','HOS']</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="I29" t="str">
+      <c r="I29" s="6" t="str">
         <f>"{ name: """&amp;A29&amp;""", osisID: '"&amp;B29&amp;"', paratext: "&amp;IF(C29="","null","'"&amp;C29&amp;"'")&amp;", groups: "&amp;E29&amp;", aliases: "&amp;H29&amp;" },"</f>
         <v>{ name: "Hosea", osisID: 'Hos', paratext: 'HOS', groups: ['Old Testament', 'Bible'], aliases: ['Hos','HOS'] },</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G30" s="5" t="str">
+      <c r="G30" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Joel','JOL']</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I30" s="6" t="str">
         <f>"{ name: """&amp;A30&amp;""", osisID: '"&amp;B30&amp;"', paratext: "&amp;IF(C30="","null","'"&amp;C30&amp;"'")&amp;", groups: "&amp;E30&amp;", aliases: "&amp;H30&amp;" },"</f>
         <v>{ name: "Joel", osisID: 'Joel', paratext: 'JOL', groups: ['Old Testament', 'Bible'], aliases: ['Joel','JOL'] },</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G31" s="5" t="str">
+      <c r="G31" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Amos','AMO']</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31" s="6" t="str">
         <f>"{ name: """&amp;A31&amp;""", osisID: '"&amp;B31&amp;"', paratext: "&amp;IF(C31="","null","'"&amp;C31&amp;"'")&amp;", groups: "&amp;E31&amp;", aliases: "&amp;H31&amp;" },"</f>
         <v>{ name: "Amos", osisID: 'Amos', paratext: 'AMO', groups: ['Old Testament', 'Bible'], aliases: ['Amos','AMO'] },</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G32" s="5" t="str">
+      <c r="G32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Obad','OBA']</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32" s="6" t="str">
         <f>"{ name: """&amp;A32&amp;""", osisID: '"&amp;B32&amp;"', paratext: "&amp;IF(C32="","null","'"&amp;C32&amp;"'")&amp;", groups: "&amp;E32&amp;", aliases: "&amp;H32&amp;" },"</f>
         <v>{ name: "Obadiah", osisID: 'Obad', paratext: 'OBA', groups: ['Old Testament', 'Bible'], aliases: ['Obad','OBA'] },</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G33" s="5" t="str">
+      <c r="G33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Jonah','JON']</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33" s="6" t="str">
         <f>"{ name: """&amp;A33&amp;""", osisID: '"&amp;B33&amp;"', paratext: "&amp;IF(C33="","null","'"&amp;C33&amp;"'")&amp;", groups: "&amp;E33&amp;", aliases: "&amp;H33&amp;" },"</f>
         <v>{ name: "Jonah", osisID: 'Jonah', paratext: 'JON', groups: ['Old Testament', 'Bible'], aliases: ['Jonah','JON'] },</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G34" s="5" t="str">
+      <c r="G34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Mic','MIC']</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I34" s="6" t="str">
         <f>"{ name: """&amp;A34&amp;""", osisID: '"&amp;B34&amp;"', paratext: "&amp;IF(C34="","null","'"&amp;C34&amp;"'")&amp;", groups: "&amp;E34&amp;", aliases: "&amp;H34&amp;" },"</f>
         <v>{ name: "Micah", osisID: 'Mic', paratext: 'MIC', groups: ['Old Testament', 'Bible'], aliases: ['Mic','MIC'] },</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G35" s="5" t="str">
+      <c r="G35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Nah','NAM']</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I35" s="6" t="str">
         <f>"{ name: """&amp;A35&amp;""", osisID: '"&amp;B35&amp;"', paratext: "&amp;IF(C35="","null","'"&amp;C35&amp;"'")&amp;", groups: "&amp;E35&amp;", aliases: "&amp;H35&amp;" },"</f>
         <v>{ name: "Nahum", osisID: 'Nah', paratext: 'NAM', groups: ['Old Testament', 'Bible'], aliases: ['Nah','NAM'] },</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G36" s="5" t="str">
+      <c r="G36" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Hab','HAB']</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="6" t="str">
         <f>"{ name: """&amp;A36&amp;""", osisID: '"&amp;B36&amp;"', paratext: "&amp;IF(C36="","null","'"&amp;C36&amp;"'")&amp;", groups: "&amp;E36&amp;", aliases: "&amp;H36&amp;" },"</f>
         <v>{ name: "Habakkuk", osisID: 'Hab', paratext: 'HAB', groups: ['Old Testament', 'Bible'], aliases: ['Hab','HAB'] },</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G37" s="5" t="str">
+      <c r="G37" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Zeph','ZEP']</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="I37" t="str">
+      <c r="I37" s="6" t="str">
         <f>"{ name: """&amp;A37&amp;""", osisID: '"&amp;B37&amp;"', paratext: "&amp;IF(C37="","null","'"&amp;C37&amp;"'")&amp;", groups: "&amp;E37&amp;", aliases: "&amp;H37&amp;" },"</f>
         <v>{ name: "Zephaniah", osisID: 'Zeph', paratext: 'ZEP', groups: ['Old Testament', 'Bible'], aliases: ['Zeph','ZEP'] },</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G38" s="5" t="str">
+      <c r="G38" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Hag','HAG']</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="I38" t="str">
+      <c r="I38" s="6" t="str">
         <f>"{ name: """&amp;A38&amp;""", osisID: '"&amp;B38&amp;"', paratext: "&amp;IF(C38="","null","'"&amp;C38&amp;"'")&amp;", groups: "&amp;E38&amp;", aliases: "&amp;H38&amp;" },"</f>
         <v>{ name: "Haggai", osisID: 'Hag', paratext: 'HAG', groups: ['Old Testament', 'Bible'], aliases: ['Hag','HAG'] },</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G39" s="5" t="str">
+      <c r="G39" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Zech','ZEC']</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="6" t="str">
         <f>"{ name: """&amp;A39&amp;""", osisID: '"&amp;B39&amp;"', paratext: "&amp;IF(C39="","null","'"&amp;C39&amp;"'")&amp;", groups: "&amp;E39&amp;", aliases: "&amp;H39&amp;" },"</f>
         <v>{ name: "Zechariah", osisID: 'Zech', paratext: 'ZEC', groups: ['Old Testament', 'Bible'], aliases: ['Zech','ZEC'] },</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G40" s="5" t="str">
+      <c r="G40" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Mal','MAL']</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I40" s="6" t="str">
         <f>"{ name: """&amp;A40&amp;""", osisID: '"&amp;B40&amp;"', paratext: "&amp;IF(C40="","null","'"&amp;C40&amp;"'")&amp;", groups: "&amp;E40&amp;", aliases: "&amp;H40&amp;" },"</f>
         <v>{ name: "Malachi", osisID: 'Mal', paratext: 'MAL', groups: ['Old Testament', 'Bible'], aliases: ['Mal','MAL'] },</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G41" s="5" t="str">
+      <c r="G41" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Matt','MAT']</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="6" t="str">
         <f>"{ name: """&amp;A41&amp;""", osisID: '"&amp;B41&amp;"', paratext: "&amp;IF(C41="","null","'"&amp;C41&amp;"'")&amp;", groups: "&amp;E41&amp;", aliases: "&amp;H41&amp;" },"</f>
         <v>{ name: "Matthew", osisID: 'Matt', paratext: 'MAT', groups: ['New Testament', 'Bible', 'Gospels'], aliases: ['Matt','MAT'] },</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G42" s="5" t="str">
+      <c r="G42" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Mark','MRK']</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="I42" t="str">
+      <c r="I42" s="6" t="str">
         <f>"{ name: """&amp;A42&amp;""", osisID: '"&amp;B42&amp;"', paratext: "&amp;IF(C42="","null","'"&amp;C42&amp;"'")&amp;", groups: "&amp;E42&amp;", aliases: "&amp;H42&amp;" },"</f>
         <v>{ name: "Mark", osisID: 'Mark', paratext: 'MRK', groups: ['New Testament', 'Bible', 'Gospels'], aliases: ['Mark','MRK'] },</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G43" s="5" t="str">
+      <c r="G43" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Luke','LUK']</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="I43" t="str">
+      <c r="I43" s="6" t="str">
         <f>"{ name: """&amp;A43&amp;""", osisID: '"&amp;B43&amp;"', paratext: "&amp;IF(C43="","null","'"&amp;C43&amp;"'")&amp;", groups: "&amp;E43&amp;", aliases: "&amp;H43&amp;" },"</f>
         <v>{ name: "Luke", osisID: 'Luke', paratext: 'LUK', groups: ['New Testament', 'Bible', 'Gospels'], aliases: ['Luke','LUK'] },</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G44" s="5" t="str">
+      <c r="G44" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['John','JHN']</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="I44" t="str">
+      <c r="I44" s="6" t="str">
         <f>"{ name: """&amp;A44&amp;""", osisID: '"&amp;B44&amp;"', paratext: "&amp;IF(C44="","null","'"&amp;C44&amp;"'")&amp;", groups: "&amp;E44&amp;", aliases: "&amp;H44&amp;" },"</f>
         <v>{ name: "John", osisID: 'John', paratext: 'JHN', groups: ['New Testament', 'Bible', 'Gospels'], aliases: ['John','JHN'] },</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G45" s="5" t="str">
+      <c r="G45" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Acts','ACT']</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I45" s="6" t="str">
         <f>"{ name: """&amp;A45&amp;""", osisID: '"&amp;B45&amp;"', paratext: "&amp;IF(C45="","null","'"&amp;C45&amp;"'")&amp;", groups: "&amp;E45&amp;", aliases: "&amp;H45&amp;" },"</f>
         <v>{ name: "Acts", osisID: 'Acts', paratext: 'ACT', groups: ['New Testament', 'Bible'], aliases: ['Acts','ACT'] },</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G46" s="5" t="str">
+      <c r="G46" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Rom','ROM']</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="6" t="str">
         <f>"{ name: """&amp;A46&amp;""", osisID: '"&amp;B46&amp;"', paratext: "&amp;IF(C46="","null","'"&amp;C46&amp;"'")&amp;", groups: "&amp;E46&amp;", aliases: "&amp;H46&amp;" },"</f>
         <v>{ name: "Romans", osisID: 'Rom', paratext: 'ROM', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['Rom','ROM'] },</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G47" s="5" t="str">
+      <c r="G47" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['1Cor','1CO']</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="I47" t="str">
+      <c r="I47" s="6" t="str">
         <f>"{ name: """&amp;A47&amp;""", osisID: '"&amp;B47&amp;"', paratext: "&amp;IF(C47="","null","'"&amp;C47&amp;"'")&amp;", groups: "&amp;E47&amp;", aliases: "&amp;H47&amp;" },"</f>
         <v>{ name: "1 Corinthians", osisID: '1Cor', paratext: '1CO', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['1Cor','1CO'] },</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G48" s="5" t="str">
+      <c r="G48" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['2Cor','2CO']</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="I48" t="str">
+      <c r="I48" s="6" t="str">
         <f>"{ name: """&amp;A48&amp;""", osisID: '"&amp;B48&amp;"', paratext: "&amp;IF(C48="","null","'"&amp;C48&amp;"'")&amp;", groups: "&amp;E48&amp;", aliases: "&amp;H48&amp;" },"</f>
         <v>{ name: "2 Corinthians", osisID: '2Cor', paratext: '2CO', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['2Cor','2CO'] },</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G49" s="5" t="str">
+      <c r="G49" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Gal','GAL']</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I49" s="6" t="str">
         <f>"{ name: """&amp;A49&amp;""", osisID: '"&amp;B49&amp;"', paratext: "&amp;IF(C49="","null","'"&amp;C49&amp;"'")&amp;", groups: "&amp;E49&amp;", aliases: "&amp;H49&amp;" },"</f>
         <v>{ name: "Galatians", osisID: 'Gal', paratext: 'GAL', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['Gal','GAL'] },</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G50" s="5" t="str">
+      <c r="G50" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Eph','EPH']</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="I50" t="str">
+      <c r="I50" s="6" t="str">
         <f>"{ name: """&amp;A50&amp;""", osisID: '"&amp;B50&amp;"', paratext: "&amp;IF(C50="","null","'"&amp;C50&amp;"'")&amp;", groups: "&amp;E50&amp;", aliases: "&amp;H50&amp;" },"</f>
         <v>{ name: "Ephesians", osisID: 'Eph', paratext: 'EPH', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['Eph','EPH'] },</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G51" s="5" t="str">
+      <c r="G51" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Phil','PHP']</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="6" t="str">
         <f>"{ name: """&amp;A51&amp;""", osisID: '"&amp;B51&amp;"', paratext: "&amp;IF(C51="","null","'"&amp;C51&amp;"'")&amp;", groups: "&amp;E51&amp;", aliases: "&amp;H51&amp;" },"</f>
         <v>{ name: "Philippians", osisID: 'Phil', paratext: 'PHP', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['Phil','PHP'] },</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G52" s="5" t="str">
+      <c r="G52" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Col','COL']</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="6" t="str">
         <f>"{ name: """&amp;A52&amp;""", osisID: '"&amp;B52&amp;"', paratext: "&amp;IF(C52="","null","'"&amp;C52&amp;"'")&amp;", groups: "&amp;E52&amp;", aliases: "&amp;H52&amp;" },"</f>
         <v>{ name: "Colossians", osisID: 'Col', paratext: 'COL', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['Col','COL'] },</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G53" s="5" t="str">
+      <c r="G53" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['1Thess','1TH']</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="I53" t="str">
+      <c r="I53" s="6" t="str">
         <f>"{ name: """&amp;A53&amp;""", osisID: '"&amp;B53&amp;"', paratext: "&amp;IF(C53="","null","'"&amp;C53&amp;"'")&amp;", groups: "&amp;E53&amp;", aliases: "&amp;H53&amp;" },"</f>
         <v>{ name: "1 Thessalonians", osisID: '1Thess', paratext: '1TH', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['1Thess','1TH'] },</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G54" s="5" t="str">
+      <c r="G54" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['2Thess','2TH']</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="I54" t="str">
+      <c r="I54" s="6" t="str">
         <f>"{ name: """&amp;A54&amp;""", osisID: '"&amp;B54&amp;"', paratext: "&amp;IF(C54="","null","'"&amp;C54&amp;"'")&amp;", groups: "&amp;E54&amp;", aliases: "&amp;H54&amp;" },"</f>
         <v>{ name: "2 Thessalonians", osisID: '2Thess', paratext: '2TH', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['2Thess','2TH'] },</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G55" s="5" t="str">
+      <c r="G55" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['1Tim','1TI']</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="I55" t="str">
+      <c r="I55" s="6" t="str">
         <f>"{ name: """&amp;A55&amp;""", osisID: '"&amp;B55&amp;"', paratext: "&amp;IF(C55="","null","'"&amp;C55&amp;"'")&amp;", groups: "&amp;E55&amp;", aliases: "&amp;H55&amp;" },"</f>
         <v>{ name: "1 Timothy", osisID: '1Tim', paratext: '1TI', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['1Tim','1TI'] },</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G56" s="5" t="str">
+      <c r="G56" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['2Tim','2TI']</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="I56" t="str">
+      <c r="I56" s="6" t="str">
         <f>"{ name: """&amp;A56&amp;""", osisID: '"&amp;B56&amp;"', paratext: "&amp;IF(C56="","null","'"&amp;C56&amp;"'")&amp;", groups: "&amp;E56&amp;", aliases: "&amp;H56&amp;" },"</f>
         <v>{ name: "2 Timothy", osisID: '2Tim', paratext: '2TI', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['2Tim','2TI'] },</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G57" s="5" t="str">
+      <c r="G57" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Titus','TIT']</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="I57" t="str">
+      <c r="I57" s="6" t="str">
         <f>"{ name: """&amp;A57&amp;""", osisID: '"&amp;B57&amp;"', paratext: "&amp;IF(C57="","null","'"&amp;C57&amp;"'")&amp;", groups: "&amp;E57&amp;", aliases: "&amp;H57&amp;" },"</f>
         <v>{ name: "Titus", osisID: 'Titus', paratext: 'TIT', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['Titus','TIT'] },</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G58" s="5" t="str">
+      <c r="G58" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Phlm','PHM']</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="I58" t="str">
+      <c r="I58" s="6" t="str">
         <f>"{ name: """&amp;A58&amp;""", osisID: '"&amp;B58&amp;"', paratext: "&amp;IF(C58="","null","'"&amp;C58&amp;"'")&amp;", groups: "&amp;E58&amp;", aliases: "&amp;H58&amp;" },"</f>
         <v>{ name: "Philemon", osisID: 'Phlm', paratext: 'PHM', groups: ['New Testament', 'Bible', 'Pauline Epistles'], aliases: ['Phlm','PHM'] },</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G59" s="5" t="str">
+      <c r="G59" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Heb','HEB']</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="I59" t="str">
+      <c r="I59" s="6" t="str">
         <f>"{ name: """&amp;A59&amp;""", osisID: '"&amp;B59&amp;"', paratext: "&amp;IF(C59="","null","'"&amp;C59&amp;"'")&amp;", groups: "&amp;E59&amp;", aliases: "&amp;H59&amp;" },"</f>
         <v>{ name: "Hebrews", osisID: 'Heb', paratext: 'HEB', groups: ['New Testament', 'Bible'], aliases: ['Heb','HEB'] },</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G60" s="5" t="str">
+      <c r="G60" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Jas','JAS']</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="I60" t="str">
+      <c r="I60" s="6" t="str">
         <f>"{ name: """&amp;A60&amp;""", osisID: '"&amp;B60&amp;"', paratext: "&amp;IF(C60="","null","'"&amp;C60&amp;"'")&amp;", groups: "&amp;E60&amp;", aliases: "&amp;H60&amp;" },"</f>
         <v>{ name: "James", osisID: 'Jas', paratext: 'JAS', groups: ['New Testament', 'Bible'], aliases: ['Jas','JAS'] },</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G61" s="5" t="str">
+      <c r="G61" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['1Pet','1PE']</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="I61" t="str">
+      <c r="I61" s="6" t="str">
         <f>"{ name: """&amp;A61&amp;""", osisID: '"&amp;B61&amp;"', paratext: "&amp;IF(C61="","null","'"&amp;C61&amp;"'")&amp;", groups: "&amp;E61&amp;", aliases: "&amp;H61&amp;" },"</f>
         <v>{ name: "1 Peter", osisID: '1Pet', paratext: '1PE', groups: ['New Testament', 'Bible'], aliases: ['1Pet','1PE'] },</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G62" s="5" t="str">
+      <c r="G62" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['2Pet','2PE']</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="I62" t="str">
+      <c r="I62" s="6" t="str">
         <f>"{ name: """&amp;A62&amp;""", osisID: '"&amp;B62&amp;"', paratext: "&amp;IF(C62="","null","'"&amp;C62&amp;"'")&amp;", groups: "&amp;E62&amp;", aliases: "&amp;H62&amp;" },"</f>
         <v>{ name: "2 Peter", osisID: '2Pet', paratext: '2PE', groups: ['New Testament', 'Bible'], aliases: ['2Pet','2PE'] },</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G63" s="5" t="str">
+      <c r="G63" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['1John','1JN']</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="I63" t="str">
+      <c r="I63" s="6" t="str">
         <f>"{ name: """&amp;A63&amp;""", osisID: '"&amp;B63&amp;"', paratext: "&amp;IF(C63="","null","'"&amp;C63&amp;"'")&amp;", groups: "&amp;E63&amp;", aliases: "&amp;H63&amp;" },"</f>
         <v>{ name: "1 John", osisID: '1John', paratext: '1JN', groups: ['New Testament', 'Bible'], aliases: ['1John','1JN'] },</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G64" s="5" t="str">
+      <c r="G64" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['2John','2JN']</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="I64" t="str">
+      <c r="I64" s="6" t="str">
         <f>"{ name: """&amp;A64&amp;""", osisID: '"&amp;B64&amp;"', paratext: "&amp;IF(C64="","null","'"&amp;C64&amp;"'")&amp;", groups: "&amp;E64&amp;", aliases: "&amp;H64&amp;" },"</f>
         <v>{ name: "2 John", osisID: '2John', paratext: '2JN', groups: ['New Testament', 'Bible'], aliases: ['2John','2JN'] },</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G65" s="5" t="str">
+      <c r="G65" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['3John','3JN']</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="I65" t="str">
+      <c r="I65" s="6" t="str">
         <f>"{ name: """&amp;A65&amp;""", osisID: '"&amp;B65&amp;"', paratext: "&amp;IF(C65="","null","'"&amp;C65&amp;"'")&amp;", groups: "&amp;E65&amp;", aliases: "&amp;H65&amp;" },"</f>
         <v>{ name: "3 John", osisID: '3John', paratext: '3JN', groups: ['New Testament', 'Bible'], aliases: ['3John','3JN'] },</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G66" s="5" t="str">
+      <c r="G66" s="7" t="str">
         <f t="shared" si="0"/>
         <v>['Jude','JUD']</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="I66" t="str">
+      <c r="I66" s="6" t="str">
         <f>"{ name: """&amp;A66&amp;""", osisID: '"&amp;B66&amp;"', paratext: "&amp;IF(C66="","null","'"&amp;C66&amp;"'")&amp;", groups: "&amp;E66&amp;", aliases: "&amp;H66&amp;" },"</f>
         <v>{ name: "Jude", osisID: 'Jude', paratext: 'JUD', groups: ['New Testament', 'Bible'], aliases: ['Jude','JUD'] },</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G67" s="5" t="str">
+      <c r="G67" s="7" t="str">
         <f t="shared" ref="G67:G130" si="1">SUBSTITUTE("['"&amp;B67&amp;"','"&amp;C67&amp;"']",",''","")</f>
         <v>['Rev','REV']</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="I67" t="str">
+      <c r="I67" s="6" t="str">
         <f>"{ name: """&amp;A67&amp;""", osisID: '"&amp;B67&amp;"', paratext: "&amp;IF(C67="","null","'"&amp;C67&amp;"'")&amp;", groups: "&amp;E67&amp;", aliases: "&amp;H67&amp;" },"</f>
         <v>{ name: "Revelation", osisID: 'Rev', paratext: 'REV', groups: ['New Testament', 'Bible'], aliases: ['Rev','REV'] },</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G68" s="5" t="str">
+      <c r="F68" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G68" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['Tob','TOB']</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="I68" t="str">
+      <c r="I68" s="6" t="str">
         <f>"{ name: """&amp;A68&amp;""", osisID: '"&amp;B68&amp;"', paratext: "&amp;IF(C68="","null","'"&amp;C68&amp;"'")&amp;", groups: "&amp;E68&amp;", aliases: "&amp;H68&amp;" },"</f>
         <v>{ name: "Tobit", osisID: 'Tob', paratext: 'TOB', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['Tob','TOB'] },</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G69" s="5" t="str">
+      <c r="F69" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G69" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['Jdt','JDT']</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="I69" t="str">
+      <c r="I69" s="6" t="str">
         <f>"{ name: """&amp;A69&amp;""", osisID: '"&amp;B69&amp;"', paratext: "&amp;IF(C69="","null","'"&amp;C69&amp;"'")&amp;", groups: "&amp;E69&amp;", aliases: "&amp;H69&amp;" },"</f>
         <v>{ name: "Judith", osisID: 'Jdt', paratext: 'JDT', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['Jdt','JDT'] },</v>
       </c>
@@ -4697,64 +4706,64 @@
         <v>{ name: "Greek Esther", osisID: 'EsthGr', paratext: 'ESG', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['EsthGr','ESG'] },</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G71" s="5" t="str">
+      <c r="F71" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G71" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['AddEsth','ADE']</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="I71" t="str">
+      <c r="I71" s="6" t="str">
         <f>"{ name: """&amp;A71&amp;""", osisID: '"&amp;B71&amp;"', paratext: "&amp;IF(C71="","null","'"&amp;C71&amp;"'")&amp;", groups: "&amp;E71&amp;", aliases: "&amp;H71&amp;" },"</f>
         <v>{ name: "Additions to Esther", osisID: 'AddEsth', paratext: 'ADE', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['AddEsth','ADE'] },</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G72" s="5" t="str">
+      <c r="F72" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G72" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['Wis','WIS']</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="I72" t="str">
+      <c r="I72" s="6" t="str">
         <f>"{ name: """&amp;A72&amp;""", osisID: '"&amp;B72&amp;"', paratext: "&amp;IF(C72="","null","'"&amp;C72&amp;"'")&amp;", groups: "&amp;E72&amp;", aliases: "&amp;H72&amp;" },"</f>
         <v>{ name: "Wisdom", osisID: 'Wis', paratext: 'WIS', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['Wisdom of Solomon','Wis','WIS'] },</v>
       </c>
@@ -4787,33 +4796,33 @@
         <v>{ name: "Sirach Prologue", osisID: 'SirP', paratext: null, groups: ['Deuterocannon', 'Apocrypha'], aliases: ['SirP'] },</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G74" s="5" t="str">
+      <c r="F74" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G74" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['Sir','SIR']</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="I74" t="str">
+      <c r="I74" s="6" t="str">
         <f>"{ name: """&amp;A74&amp;""", osisID: '"&amp;B74&amp;"', paratext: "&amp;IF(C74="","null","'"&amp;C74&amp;"'")&amp;", groups: "&amp;E74&amp;", aliases: "&amp;H74&amp;" },"</f>
         <v>{ name: "Sirach", osisID: 'Sir', paratext: 'SIR', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['Ecclesiasticus','Sir','SIR'] },</v>
       </c>
@@ -4849,33 +4858,33 @@
         <v>{ name: "Baruch", osisID: 'Bar', paratext: 'BAR', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['Bar','BAR'] },</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G76" s="5" t="str">
+      <c r="F76" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G76" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['EpJer','LJE']</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I76" s="6" t="str">
         <f>"{ name: """&amp;A76&amp;""", osisID: '"&amp;B76&amp;"', paratext: "&amp;IF(C76="","null","'"&amp;C76&amp;"'")&amp;", groups: "&amp;E76&amp;", aliases: "&amp;H76&amp;" },"</f>
         <v>{ name: "Letter of Jeremiah", osisID: 'EpJer', paratext: 'LJE', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['EpJer','LJE'] },</v>
       </c>
@@ -4939,64 +4948,64 @@
         <v>{ name: "Additions to Daniel", osisID: 'AddDan', paratext: null, groups: ['Deuterocannon', 'Apocrypha'], aliases: ['AddDan'] },</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G79" s="5" t="str">
+      <c r="F79" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G79" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['PrAzar','S3Y']</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="I79" t="str">
+      <c r="I79" s="6" t="str">
         <f>"{ name: """&amp;A79&amp;""", osisID: '"&amp;B79&amp;"', paratext: "&amp;IF(C79="","null","'"&amp;C79&amp;"'")&amp;", groups: "&amp;E79&amp;", aliases: "&amp;H79&amp;" },"</f>
         <v>{ name: "Prayer of Azariah", osisID: 'PrAzar', paratext: 'S3Y', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['Song of the Three Children','PrAzar','S3Y'] },</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G80" s="5" t="str">
+      <c r="F80" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G80" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['Sus','SUS']</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="I80" t="str">
+      <c r="I80" s="6" t="str">
         <f>"{ name: """&amp;A80&amp;""", osisID: '"&amp;B80&amp;"', paratext: "&amp;IF(C80="","null","'"&amp;C80&amp;"'")&amp;", groups: "&amp;E80&amp;", aliases: "&amp;H80&amp;" },"</f>
         <v>{ name: "Susanna", osisID: 'Sus', paratext: 'SUS', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['Sus','SUS'] },</v>
       </c>
@@ -5032,64 +5041,64 @@
         <v>{ name: "Bel and the Dragon", osisID: 'Bel', paratext: 'BEL', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['Bel','BEL'] },</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G82" s="5" t="str">
+      <c r="F82" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G82" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['1Macc','1MA']</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="I82" t="str">
+      <c r="I82" s="6" t="str">
         <f>"{ name: """&amp;A82&amp;""", osisID: '"&amp;B82&amp;"', paratext: "&amp;IF(C82="","null","'"&amp;C82&amp;"'")&amp;", groups: "&amp;E82&amp;", aliases: "&amp;H82&amp;" },"</f>
         <v>{ name: "1 Maccabees", osisID: '1Macc', paratext: '1MA', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['1Macc','1MA'] },</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G83" s="5" t="str">
+      <c r="F83" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G83" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['2Macc','2MA']</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="I83" t="str">
+      <c r="I83" s="6" t="str">
         <f>"{ name: """&amp;A83&amp;""", osisID: '"&amp;B83&amp;"', paratext: "&amp;IF(C83="","null","'"&amp;C83&amp;"'")&amp;", groups: "&amp;E83&amp;", aliases: "&amp;H83&amp;" },"</f>
         <v>{ name: "2 Maccabees", osisID: '2Macc', paratext: '2MA', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['2Macc','2MA'] },</v>
       </c>
@@ -5156,39 +5165,39 @@
         <v>{ name: "4 Maccabees", osisID: '4Macc', paratext: '4MA', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['4Macc','4MA'] },</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G86" s="5" t="str">
+      <c r="F86" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G86" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['PrMan','MAN']</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="I86" t="str">
+      <c r="I86" s="6" t="str">
         <f>"{ name: """&amp;A86&amp;""", osisID: '"&amp;B86&amp;"', paratext: "&amp;IF(C86="","null","'"&amp;C86&amp;"'")&amp;", groups: "&amp;E86&amp;", aliases: "&amp;H86&amp;" },"</f>
         <v>{ name: "Prayer of Manasseh", osisID: 'PrMan', paratext: 'MAN', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['PrMan','MAN'] },</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B87" t="s">
@@ -5218,33 +5227,33 @@
         <v>{ name: "1 Esdras", osisID: '1Esd', paratext: '1ES', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['1Esd','1ES'] },</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G88" s="5" t="str">
+      <c r="F88" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G88" s="7" t="str">
         <f t="shared" si="1"/>
         <v>['2Esd','2ES']</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="I88" t="str">
+      <c r="I88" s="6" t="str">
         <f>"{ name: """&amp;A88&amp;""", osisID: '"&amp;B88&amp;"', paratext: "&amp;IF(C88="","null","'"&amp;C88&amp;"'")&amp;", groups: "&amp;E88&amp;", aliases: "&amp;H88&amp;" },"</f>
         <v>{ name: "2 Esdras", osisID: '2Esd', paratext: '2ES', groups: ['Deuterocannon', 'Apocrypha'], aliases: ['2Esd','2ES'] },</v>
       </c>
@@ -5529,7 +5538,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B98" t="s">
@@ -5552,11 +5561,11 @@
         <v>['EpLao','LAO']</v>
       </c>
       <c r="H98" t="s">
-        <v>625</v>
+        <v>686</v>
       </c>
       <c r="I98" t="str">
         <f>"{ name: """&amp;A98&amp;""", osisID: '"&amp;B98&amp;"', paratext: "&amp;IF(C98="","null","'"&amp;C98&amp;"'")&amp;", groups: "&amp;E98&amp;", aliases: "&amp;H98&amp;" },"</f>
-        <v>{ name: "Epistle to the Laodiceans", osisID: 'EpLao', paratext: 'LAO', groups: ['Vulgate', 'Apocrypha'], aliases: ['EpLao','LAO'] },</v>
+        <v>{ name: "Epistle to the Laodiceans", osisID: 'EpLao', paratext: 'LAO', groups: ['Vulgate', 'Apocrypha'], aliases: ['EpLao','LAO','Laodiceans'] },</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -5583,7 +5592,7 @@
         <v>['5Ezra','5EZ']</v>
       </c>
       <c r="H99" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I99" t="str">
         <f>"{ name: """&amp;A99&amp;""", osisID: '"&amp;B99&amp;"', paratext: "&amp;IF(C99="","null","'"&amp;C99&amp;"'")&amp;", groups: "&amp;E99&amp;", aliases: "&amp;H99&amp;" },"</f>
@@ -5645,7 +5654,7 @@
         <v>['6Ezra','6EZ']</v>
       </c>
       <c r="H101" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I101" t="str">
         <f>"{ name: """&amp;A101&amp;""", osisID: '"&amp;B101&amp;"', paratext: "&amp;IF(C101="","null","'"&amp;C101&amp;"'")&amp;", groups: "&amp;E101&amp;", aliases: "&amp;H101&amp;" },"</f>
@@ -5676,7 +5685,7 @@
         <v>['PrSol','PSO']</v>
       </c>
       <c r="H102" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I102" t="str">
         <f>"{ name: """&amp;A102&amp;""", osisID: '"&amp;B102&amp;"', paratext: "&amp;IF(C102="","null","'"&amp;C102&amp;"'")&amp;", groups: "&amp;E102&amp;", aliases: "&amp;H102&amp;" },"</f>
@@ -5707,7 +5716,7 @@
         <v>['PrJer','PJE']</v>
       </c>
       <c r="H103" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I103" t="str">
         <f>"{ name: """&amp;A103&amp;""", osisID: '"&amp;B103&amp;"', paratext: "&amp;IF(C103="","null","'"&amp;C103&amp;"'")&amp;", groups: "&amp;E103&amp;", aliases: "&amp;H103&amp;" },"</f>
@@ -5769,7 +5778,7 @@
         <v>['Jub','JUB']</v>
       </c>
       <c r="H105" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I105" t="str">
         <f>"{ name: """&amp;A105&amp;""", osisID: '"&amp;B105&amp;"', paratext: "&amp;IF(C105="","null","'"&amp;C105&amp;"'")&amp;", groups: "&amp;E105&amp;", aliases: "&amp;H105&amp;" },"</f>
@@ -5831,7 +5840,7 @@
         <v>['1Meq','1MQ']</v>
       </c>
       <c r="H107" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I107" t="str">
         <f>"{ name: """&amp;A107&amp;""", osisID: '"&amp;B107&amp;"', paratext: "&amp;IF(C107="","null","'"&amp;C107&amp;"'")&amp;", groups: "&amp;E107&amp;", aliases: "&amp;H107&amp;" },"</f>
@@ -5862,7 +5871,7 @@
         <v>['2Meq','2MQ']</v>
       </c>
       <c r="H108" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I108" t="str">
         <f>"{ name: """&amp;A108&amp;""", osisID: '"&amp;B108&amp;"', paratext: "&amp;IF(C108="","null","'"&amp;C108&amp;"'")&amp;", groups: "&amp;E108&amp;", aliases: "&amp;H108&amp;" },"</f>
@@ -5893,7 +5902,7 @@
         <v>['3Meq','3MQ']</v>
       </c>
       <c r="H109" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I109" t="str">
         <f>"{ name: """&amp;A109&amp;""", osisID: '"&amp;B109&amp;"', paratext: "&amp;IF(C109="","null","'"&amp;C109&amp;"'")&amp;", groups: "&amp;E109&amp;", aliases: "&amp;H109&amp;" },"</f>
@@ -6011,7 +6020,7 @@
         <v>['EpCorPaul','COP']</v>
       </c>
       <c r="H113" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I113" t="str">
         <f>"{ name: """&amp;A113&amp;""", osisID: '"&amp;B113&amp;"', paratext: "&amp;IF(C113="","null","'"&amp;C113&amp;"'")&amp;", groups: "&amp;E113&amp;", aliases: "&amp;H113&amp;" },"</f>
@@ -6042,7 +6051,7 @@
         <v>['3Cor','3CO']</v>
       </c>
       <c r="H114" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I114" t="str">
         <f>"{ name: """&amp;A114&amp;""", osisID: '"&amp;B114&amp;"', paratext: "&amp;IF(C114="","null","'"&amp;C114&amp;"'")&amp;", groups: "&amp;E114&amp;", aliases: "&amp;H114&amp;" },"</f>
@@ -6073,7 +6082,7 @@
         <v>['WSir','WSI']</v>
       </c>
       <c r="H115" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I115" t="str">
         <f>"{ name: """&amp;A115&amp;""", osisID: '"&amp;B115&amp;"', paratext: "&amp;IF(C115="","null","'"&amp;C115&amp;"'")&amp;", groups: "&amp;E115&amp;", aliases: "&amp;H115&amp;" },"</f>
@@ -6104,7 +6113,7 @@
         <v>['PrEuth','EUT']</v>
       </c>
       <c r="H116" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I116" t="str">
         <f>"{ name: """&amp;A116&amp;""", osisID: '"&amp;B116&amp;"', paratext: "&amp;IF(C116="","null","'"&amp;C116&amp;"'")&amp;", groups: "&amp;E116&amp;", aliases: "&amp;H116&amp;" },"</f>
@@ -6135,7 +6144,7 @@
         <v>['DormJohn','DOJ']</v>
       </c>
       <c r="H117" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I117" t="str">
         <f>"{ name: """&amp;A117&amp;""", osisID: '"&amp;B117&amp;"', paratext: "&amp;IF(C117="","null","'"&amp;C117&amp;"'")&amp;", groups: "&amp;E117&amp;", aliases: "&amp;H117&amp;" },"</f>
@@ -6163,7 +6172,7 @@
         <v>['JosAsen']</v>
       </c>
       <c r="H118" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I118" t="str">
         <f>"{ name: """&amp;A118&amp;""", osisID: '"&amp;B118&amp;"', paratext: "&amp;IF(C118="","null","'"&amp;C118&amp;"'")&amp;", groups: "&amp;E118&amp;", aliases: "&amp;H118&amp;" },"</f>
@@ -6191,7 +6200,7 @@
         <v>['T12Patr']</v>
       </c>
       <c r="H119" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I119" t="str">
         <f>"{ name: """&amp;A119&amp;""", osisID: '"&amp;B119&amp;"', paratext: "&amp;IF(C119="","null","'"&amp;C119&amp;"'")&amp;", groups: "&amp;E119&amp;", aliases: "&amp;H119&amp;" },"</f>
@@ -6219,7 +6228,7 @@
         <v>['T12Patr.TAsh']</v>
       </c>
       <c r="H120" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I120" t="str">
         <f>"{ name: """&amp;A120&amp;""", osisID: '"&amp;B120&amp;"', paratext: "&amp;IF(C120="","null","'"&amp;C120&amp;"'")&amp;", groups: "&amp;E120&amp;", aliases: "&amp;H120&amp;" },"</f>
@@ -6247,7 +6256,7 @@
         <v>['T12Patr.TBenj']</v>
       </c>
       <c r="H121" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I121" t="str">
         <f>"{ name: """&amp;A121&amp;""", osisID: '"&amp;B121&amp;"', paratext: "&amp;IF(C121="","null","'"&amp;C121&amp;"'")&amp;", groups: "&amp;E121&amp;", aliases: "&amp;H121&amp;" },"</f>
@@ -6275,7 +6284,7 @@
         <v>['T12Patr.TDan']</v>
       </c>
       <c r="H122" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I122" t="str">
         <f>"{ name: """&amp;A122&amp;""", osisID: '"&amp;B122&amp;"', paratext: "&amp;IF(C122="","null","'"&amp;C122&amp;"'")&amp;", groups: "&amp;E122&amp;", aliases: "&amp;H122&amp;" },"</f>
@@ -6303,7 +6312,7 @@
         <v>['T12Patr.TGad']</v>
       </c>
       <c r="H123" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I123" t="str">
         <f>"{ name: """&amp;A123&amp;""", osisID: '"&amp;B123&amp;"', paratext: "&amp;IF(C123="","null","'"&amp;C123&amp;"'")&amp;", groups: "&amp;E123&amp;", aliases: "&amp;H123&amp;" },"</f>
@@ -6331,7 +6340,7 @@
         <v>['T12Patr.TIss']</v>
       </c>
       <c r="H124" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I124" t="str">
         <f>"{ name: """&amp;A124&amp;""", osisID: '"&amp;B124&amp;"', paratext: "&amp;IF(C124="","null","'"&amp;C124&amp;"'")&amp;", groups: "&amp;E124&amp;", aliases: "&amp;H124&amp;" },"</f>
@@ -6359,7 +6368,7 @@
         <v>['T12Patr.TJos']</v>
       </c>
       <c r="H125" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I125" t="str">
         <f>"{ name: """&amp;A125&amp;""", osisID: '"&amp;B125&amp;"', paratext: "&amp;IF(C125="","null","'"&amp;C125&amp;"'")&amp;", groups: "&amp;E125&amp;", aliases: "&amp;H125&amp;" },"</f>
@@ -6387,7 +6396,7 @@
         <v>['T12Patr.TJud']</v>
       </c>
       <c r="H126" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I126" t="str">
         <f>"{ name: """&amp;A126&amp;""", osisID: '"&amp;B126&amp;"', paratext: "&amp;IF(C126="","null","'"&amp;C126&amp;"'")&amp;", groups: "&amp;E126&amp;", aliases: "&amp;H126&amp;" },"</f>
@@ -6415,7 +6424,7 @@
         <v>['T12Patr.TLevi']</v>
       </c>
       <c r="H127" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I127" t="str">
         <f>"{ name: """&amp;A127&amp;""", osisID: '"&amp;B127&amp;"', paratext: "&amp;IF(C127="","null","'"&amp;C127&amp;"'")&amp;", groups: "&amp;E127&amp;", aliases: "&amp;H127&amp;" },"</f>
@@ -6443,7 +6452,7 @@
         <v>['T12Patr.TNaph']</v>
       </c>
       <c r="H128" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I128" t="str">
         <f>"{ name: """&amp;A128&amp;""", osisID: '"&amp;B128&amp;"', paratext: "&amp;IF(C128="","null","'"&amp;C128&amp;"'")&amp;", groups: "&amp;E128&amp;", aliases: "&amp;H128&amp;" },"</f>
@@ -6471,7 +6480,7 @@
         <v>['T12Patr.TReu']</v>
       </c>
       <c r="H129" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I129" t="str">
         <f>"{ name: """&amp;A129&amp;""", osisID: '"&amp;B129&amp;"', paratext: "&amp;IF(C129="","null","'"&amp;C129&amp;"'")&amp;", groups: "&amp;E129&amp;", aliases: "&amp;H129&amp;" },"</f>
@@ -6499,7 +6508,7 @@
         <v>['T12Patr.TSim']</v>
       </c>
       <c r="H130" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I130" t="str">
         <f>"{ name: """&amp;A130&amp;""", osisID: '"&amp;B130&amp;"', paratext: "&amp;IF(C130="","null","'"&amp;C130&amp;"'")&amp;", groups: "&amp;E130&amp;", aliases: "&amp;H130&amp;" },"</f>
@@ -6527,7 +6536,7 @@
         <v>['T12Patr.TZeb']</v>
       </c>
       <c r="H131" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I131" t="str">
         <f>"{ name: """&amp;A131&amp;""", osisID: '"&amp;B131&amp;"', paratext: "&amp;IF(C131="","null","'"&amp;C131&amp;"'")&amp;", groups: "&amp;E131&amp;", aliases: "&amp;H131&amp;" },"</f>
@@ -6589,7 +6598,7 @@
         <v>['EpBar','LBA']</v>
       </c>
       <c r="H133" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I133" t="str">
         <f>"{ name: """&amp;A133&amp;""", osisID: '"&amp;B133&amp;"', paratext: "&amp;IF(C133="","null","'"&amp;C133&amp;"'")&amp;", groups: "&amp;E133&amp;", aliases: "&amp;H133&amp;" },"</f>
@@ -6648,7 +6657,7 @@
         <v>['JosephusJWvi']</v>
       </c>
       <c r="H135" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I135" t="str">
         <f>"{ name: """&amp;A135&amp;""", osisID: '"&amp;B135&amp;"', paratext: "&amp;IF(C135="","null","'"&amp;C135&amp;"'")&amp;", groups: "&amp;E135&amp;", aliases: "&amp;H135&amp;" },"</f>
@@ -6679,7 +6688,7 @@
         <v>['1Clem','1CL']</v>
       </c>
       <c r="H136" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I136" t="str">
         <f>"{ name: """&amp;A136&amp;""", osisID: '"&amp;B136&amp;"', paratext: "&amp;IF(C136="","null","'"&amp;C136&amp;"'")&amp;", groups: "&amp;E136&amp;", aliases: "&amp;H136&amp;" },"</f>
@@ -6710,7 +6719,7 @@
         <v>['2Clem','2CL']</v>
       </c>
       <c r="H137" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I137" t="str">
         <f>"{ name: """&amp;A137&amp;""", osisID: '"&amp;B137&amp;"', paratext: "&amp;IF(C137="","null","'"&amp;C137&amp;"'")&amp;", groups: "&amp;E137&amp;", aliases: "&amp;H137&amp;" },"</f>
@@ -6738,7 +6747,7 @@
         <v>['IgnEph']</v>
       </c>
       <c r="H138" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I138" t="str">
         <f>"{ name: """&amp;A138&amp;""", osisID: '"&amp;B138&amp;"', paratext: "&amp;IF(C138="","null","'"&amp;C138&amp;"'")&amp;", groups: "&amp;E138&amp;", aliases: "&amp;H138&amp;" },"</f>
@@ -6766,7 +6775,7 @@
         <v>['IgnMagn']</v>
       </c>
       <c r="H139" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I139" t="str">
         <f>"{ name: """&amp;A139&amp;""", osisID: '"&amp;B139&amp;"', paratext: "&amp;IF(C139="","null","'"&amp;C139&amp;"'")&amp;", groups: "&amp;E139&amp;", aliases: "&amp;H139&amp;" },"</f>
@@ -6794,7 +6803,7 @@
         <v>['IgnTrall']</v>
       </c>
       <c r="H140" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I140" t="str">
         <f>"{ name: """&amp;A140&amp;""", osisID: '"&amp;B140&amp;"', paratext: "&amp;IF(C140="","null","'"&amp;C140&amp;"'")&amp;", groups: "&amp;E140&amp;", aliases: "&amp;H140&amp;" },"</f>
@@ -6822,7 +6831,7 @@
         <v>['IgnRom']</v>
       </c>
       <c r="H141" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I141" t="str">
         <f>"{ name: """&amp;A141&amp;""", osisID: '"&amp;B141&amp;"', paratext: "&amp;IF(C141="","null","'"&amp;C141&amp;"'")&amp;", groups: "&amp;E141&amp;", aliases: "&amp;H141&amp;" },"</f>
@@ -6850,7 +6859,7 @@
         <v>['IgnPhld']</v>
       </c>
       <c r="H142" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I142" t="str">
         <f>"{ name: """&amp;A142&amp;""", osisID: '"&amp;B142&amp;"', paratext: "&amp;IF(C142="","null","'"&amp;C142&amp;"'")&amp;", groups: "&amp;E142&amp;", aliases: "&amp;H142&amp;" },"</f>
@@ -6878,7 +6887,7 @@
         <v>['IgnSmyrn']</v>
       </c>
       <c r="H143" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I143" t="str">
         <f>"{ name: """&amp;A143&amp;""", osisID: '"&amp;B143&amp;"', paratext: "&amp;IF(C143="","null","'"&amp;C143&amp;"'")&amp;", groups: "&amp;E143&amp;", aliases: "&amp;H143&amp;" },"</f>
@@ -6906,7 +6915,7 @@
         <v>['IgnPol']</v>
       </c>
       <c r="H144" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I144" t="str">
         <f>"{ name: """&amp;A144&amp;""", osisID: '"&amp;B144&amp;"', paratext: "&amp;IF(C144="","null","'"&amp;C144&amp;"'")&amp;", groups: "&amp;E144&amp;", aliases: "&amp;H144&amp;" },"</f>
@@ -6934,7 +6943,7 @@
         <v>['PolPhil']</v>
       </c>
       <c r="H145" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I145" t="str">
         <f>"{ name: """&amp;A145&amp;""", osisID: '"&amp;B145&amp;"', paratext: "&amp;IF(C145="","null","'"&amp;C145&amp;"'")&amp;", groups: "&amp;E145&amp;", aliases: "&amp;H145&amp;" },"</f>
@@ -6962,7 +6971,7 @@
         <v>['MartPol']</v>
       </c>
       <c r="H146" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I146" t="str">
         <f>"{ name: """&amp;A146&amp;""", osisID: '"&amp;B146&amp;"', paratext: "&amp;IF(C146="","null","'"&amp;C146&amp;"'")&amp;", groups: "&amp;E146&amp;", aliases: "&amp;H146&amp;" },"</f>
@@ -6993,7 +7002,7 @@
         <v>['Did','DID']</v>
       </c>
       <c r="H147" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I147" t="str">
         <f>"{ name: """&amp;A147&amp;""", osisID: '"&amp;B147&amp;"', paratext: "&amp;IF(C147="","null","'"&amp;C147&amp;"'")&amp;", groups: "&amp;E147&amp;", aliases: "&amp;H147&amp;" },"</f>
@@ -7024,7 +7033,7 @@
         <v>['Barn','LBA']</v>
       </c>
       <c r="H148" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I148" t="str">
         <f>"{ name: """&amp;A148&amp;""", osisID: '"&amp;B148&amp;"', paratext: "&amp;IF(C148="","null","'"&amp;C148&amp;"'")&amp;", groups: "&amp;E148&amp;", aliases: "&amp;H148&amp;" },"</f>
@@ -7055,7 +7064,7 @@
         <v>['Herm','SHE']</v>
       </c>
       <c r="H149" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I149" t="str">
         <f>"{ name: """&amp;A149&amp;""", osisID: '"&amp;B149&amp;"', paratext: "&amp;IF(C149="","null","'"&amp;C149&amp;"'")&amp;", groups: "&amp;E149&amp;", aliases: "&amp;H149&amp;" },"</f>
@@ -7083,7 +7092,7 @@
         <v>['Herm.Mand']</v>
       </c>
       <c r="H150" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I150" t="str">
         <f>"{ name: """&amp;A150&amp;""", osisID: '"&amp;B150&amp;"', paratext: "&amp;IF(C150="","null","'"&amp;C150&amp;"'")&amp;", groups: "&amp;E150&amp;", aliases: "&amp;H150&amp;" },"</f>
@@ -7111,7 +7120,7 @@
         <v>['Herm.Sim']</v>
       </c>
       <c r="H151" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I151" t="str">
         <f>"{ name: """&amp;A151&amp;""", osisID: '"&amp;B151&amp;"', paratext: "&amp;IF(C151="","null","'"&amp;C151&amp;"'")&amp;", groups: "&amp;E151&amp;", aliases: "&amp;H151&amp;" },"</f>
@@ -7139,7 +7148,7 @@
         <v>['Herm.Vis']</v>
       </c>
       <c r="H152" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I152" t="str">
         <f>"{ name: """&amp;A152&amp;""", osisID: '"&amp;B152&amp;"', paratext: "&amp;IF(C152="","null","'"&amp;C152&amp;"'")&amp;", groups: "&amp;E152&amp;", aliases: "&amp;H152&amp;" },"</f>
@@ -7167,7 +7176,7 @@
         <v>['Diogn']</v>
       </c>
       <c r="H153" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I153" t="str">
         <f>"{ name: """&amp;A153&amp;""", osisID: '"&amp;B153&amp;"', paratext: "&amp;IF(C153="","null","'"&amp;C153&amp;"'")&amp;", groups: "&amp;E153&amp;", aliases: "&amp;H153&amp;" },"</f>
@@ -7195,7 +7204,7 @@
         <v>['AposCreed']</v>
       </c>
       <c r="H154" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I154" t="str">
         <f>"{ name: """&amp;A154&amp;""", osisID: '"&amp;B154&amp;"', paratext: "&amp;IF(C154="","null","'"&amp;C154&amp;"'")&amp;", groups: "&amp;E154&amp;", aliases: "&amp;H154&amp;" },"</f>
@@ -7223,7 +7232,7 @@
         <v>['PapFrag']</v>
       </c>
       <c r="H155" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I155" t="str">
         <f>"{ name: """&amp;A155&amp;""", osisID: '"&amp;B155&amp;"', paratext: "&amp;IF(C155="","null","'"&amp;C155&amp;"'")&amp;", groups: "&amp;E155&amp;", aliases: "&amp;H155&amp;" },"</f>
@@ -7251,7 +7260,7 @@
         <v>['RelElders']</v>
       </c>
       <c r="H156" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I156" t="str">
         <f>"{ name: """&amp;A156&amp;""", osisID: '"&amp;B156&amp;"', paratext: "&amp;IF(C156="","null","'"&amp;C156&amp;"'")&amp;", groups: "&amp;E156&amp;", aliases: "&amp;H156&amp;" },"</f>
@@ -7279,7 +7288,7 @@
         <v>['QuadFrag']</v>
       </c>
       <c r="H157" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I157" t="str">
         <f>"{ name: """&amp;A157&amp;""", osisID: '"&amp;B157&amp;"', paratext: "&amp;IF(C157="","null","'"&amp;C157&amp;"'")&amp;", groups: "&amp;E157&amp;", aliases: "&amp;H157&amp;" },"</f>
@@ -7338,597 +7347,597 @@
         <v>['PsMet','PSB']</v>
       </c>
       <c r="H159" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I159" t="str">
         <f>"{ name: """&amp;A159&amp;""", osisID: '"&amp;B159&amp;"', paratext: "&amp;IF(C159="","null","'"&amp;C159&amp;"'")&amp;", groups: "&amp;E159&amp;", aliases: "&amp;H159&amp;" },"</f>
         <v>{ name: "Metrical Psalms", osisID: 'PsMet', paratext: 'PSB', groups: ['Apocrypha', 'Apocrypha'], aliases: ['PsMet','PSB'] },</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="160" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="F160" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G160" s="5" t="str">
+      <c r="G160" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['1Ne']</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="I160" t="str">
+      <c r="I160" s="6" t="str">
         <f>"{ name: """&amp;A160&amp;""", osisID: '"&amp;B160&amp;"', paratext: "&amp;IF(C160="","null","'"&amp;C160&amp;"'")&amp;", groups: "&amp;E160&amp;", aliases: "&amp;H160&amp;" },"</f>
         <v>{ name: "1 Nephi", osisID: '1Ne', paratext: null, groups: ['Book of Mormon', 'Small Plates of Nephi', 'LDS'], aliases: ['1Ne','1 Ne', '1st Nephi', 'First Nephi', 'The First Book of Nephi','I Nephi'] },</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="161" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="F161" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G161" s="5" t="str">
+      <c r="G161" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['2Ne']</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="I161" t="str">
+      <c r="I161" s="6" t="str">
         <f>"{ name: """&amp;A161&amp;""", osisID: '"&amp;B161&amp;"', paratext: "&amp;IF(C161="","null","'"&amp;C161&amp;"'")&amp;", groups: "&amp;E161&amp;", aliases: "&amp;H161&amp;" },"</f>
         <v>{ name: "2 Nephi", osisID: '2Ne', paratext: null, groups: ['Book of Mormon', 'Small Plates of Nephi', 'LDS'], aliases: ['2Ne','2 Ne', '2nd Nephi', 'Second Nephi', 'The Second Book of Nephi', 'II Nephi'] },</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="162" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="F162" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G162" s="5" t="str">
+      <c r="G162" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Jac']</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H162" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="I162" t="str">
+      <c r="I162" s="6" t="str">
         <f>"{ name: """&amp;A162&amp;""", osisID: '"&amp;B162&amp;"', paratext: "&amp;IF(C162="","null","'"&amp;C162&amp;"'")&amp;", groups: "&amp;E162&amp;", aliases: "&amp;H162&amp;" },"</f>
         <v>{ name: "Jacob", osisID: 'Jac', paratext: null, groups: ['Book of Mormon', 'Small Plates of Nephi', 'LDS'], aliases: ['Jac'] },</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="163" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G163" s="5" t="str">
+      <c r="G163" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Enos']</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="I163" t="str">
+      <c r="I163" s="6" t="str">
         <f>"{ name: """&amp;A163&amp;""", osisID: '"&amp;B163&amp;"', paratext: "&amp;IF(C163="","null","'"&amp;C163&amp;"'")&amp;", groups: "&amp;E163&amp;", aliases: "&amp;H163&amp;" },"</f>
         <v>{ name: "Enos", osisID: 'Enos', paratext: null, groups: ['Book of Mormon', 'Small Plates of Nephi', 'LDS'], aliases: ['Eno'] },</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>684</v>
-      </c>
-      <c r="B164" t="s">
+    <row r="164" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="F164" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G164" s="5" t="str">
+      <c r="G164" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Jar']</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="I164" t="str">
+      <c r="I164" s="6" t="str">
         <f>"{ name: """&amp;A164&amp;""", osisID: '"&amp;B164&amp;"', paratext: "&amp;IF(C164="","null","'"&amp;C164&amp;"'")&amp;", groups: "&amp;E164&amp;", aliases: "&amp;H164&amp;" },"</f>
         <v>{ name: "Jarom", osisID: 'Jar', paratext: null, groups: ['Book of Mormon', 'Small Plates of Nephi', 'LDS'], aliases: ['Jar'] },</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="165" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G165" s="5" t="str">
+      <c r="G165" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Omni']</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="I165" t="str">
+      <c r="I165" s="6" t="str">
         <f>"{ name: """&amp;A165&amp;""", osisID: '"&amp;B165&amp;"', paratext: "&amp;IF(C165="","null","'"&amp;C165&amp;"'")&amp;", groups: "&amp;E165&amp;", aliases: "&amp;H165&amp;" },"</f>
         <v>{ name: "Omni", osisID: 'Omni', paratext: null, groups: ['Book of Mormon', 'Small Plates of Nephi', 'LDS'], aliases: ['Omn'] },</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="166" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G166" s="5" t="str">
+      <c r="G166" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['WoM']</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H166" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="I166" t="str">
+      <c r="I166" s="6" t="str">
         <f>"{ name: """&amp;A166&amp;""", osisID: '"&amp;B166&amp;"', paratext: "&amp;IF(C166="","null","'"&amp;C166&amp;"'")&amp;", groups: "&amp;E166&amp;", aliases: "&amp;H166&amp;" },"</f>
         <v>{ name: "Words of Mormon", osisID: 'WoM', paratext: null, groups: ['Book of Mormon', 'LDS','Mormon'], aliases: ['WoM'] },</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="167" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G167" s="5" t="str">
+      <c r="G167" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Mosi']</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="I167" t="str">
+      <c r="I167" s="6" t="str">
         <f>"{ name: """&amp;A167&amp;""", osisID: '"&amp;B167&amp;"', paratext: "&amp;IF(C167="","null","'"&amp;C167&amp;"'")&amp;", groups: "&amp;E167&amp;", aliases: "&amp;H167&amp;" },"</f>
         <v>{ name: "Mosiah", osisID: 'Mosi', paratext: null, groups: ['Book of Mormon', 'LDS', 'Mormon', 'Large Plates of Nephi', 'Abridgement'], aliases: ['Mosi'] },</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="168" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G168" s="5" t="str">
+      <c r="G168" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Alma']</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H168" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="I168" t="str">
+      <c r="I168" s="6" t="str">
         <f>"{ name: """&amp;A168&amp;""", osisID: '"&amp;B168&amp;"', paratext: "&amp;IF(C168="","null","'"&amp;C168&amp;"'")&amp;", groups: "&amp;E168&amp;", aliases: "&amp;H168&amp;" },"</f>
         <v>{ name: "Alma", osisID: 'Alma', paratext: null, groups: ['Book of Mormon', 'LDS', 'Mormon', 'Large Plates of Nephi', 'Abridgement'], aliases: ['Alm'] },</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="169" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G169" s="5" t="str">
+      <c r="G169" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Hel']</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H169" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="I169" t="str">
+      <c r="I169" s="6" t="str">
         <f>"{ name: """&amp;A169&amp;""", osisID: '"&amp;B169&amp;"', paratext: "&amp;IF(C169="","null","'"&amp;C169&amp;"'")&amp;", groups: "&amp;E169&amp;", aliases: "&amp;H169&amp;" },"</f>
         <v>{ name: "Helaman", osisID: 'Hel', paratext: null, groups: ['Book of Mormon', 'LDS', 'Mormon', 'Large Plates of Nephi', 'Abridgement'], aliases: ['He', 'Hlm', 'Helm'] },</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="170" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="F170" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G170" s="5" t="str">
+      <c r="G170" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['3Ne']</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H170" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="I170" t="str">
+      <c r="I170" s="6" t="str">
         <f>"{ name: """&amp;A170&amp;""", osisID: '"&amp;B170&amp;"', paratext: "&amp;IF(C170="","null","'"&amp;C170&amp;"'")&amp;", groups: "&amp;E170&amp;", aliases: "&amp;H170&amp;" },"</f>
         <v>{ name: "3 Nephi", osisID: '3Ne', paratext: null, groups: ['Book of Mormon', 'LDS', 'Mormon', 'Large Plates of Nephi', 'Abridgement'], aliases: ['3 Ne', '3rd Nephi', 'Third Nephi','III Nephi'], },</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="171" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G171" s="5" t="str">
+      <c r="G171" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['4Ne']</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H171" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="I171" t="str">
+      <c r="I171" s="6" t="str">
         <f>"{ name: """&amp;A171&amp;""", osisID: '"&amp;B171&amp;"', paratext: "&amp;IF(C171="","null","'"&amp;C171&amp;"'")&amp;", groups: "&amp;E171&amp;", aliases: "&amp;H171&amp;" },"</f>
         <v>{ name: "4 Nephi", osisID: '4Ne', paratext: null, groups: ['Book of Mormon', 'LDS', 'Mormon', 'Large Plates of Nephi', 'Abridgement'], aliases: ['4 Ne', '4th Nephi', 'Fourth Nephi','IV Nephi'] },</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="172" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F172" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G172" s="5" t="str">
+      <c r="G172" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Morm']</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H172" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="I172" t="str">
+      <c r="I172" s="6" t="str">
         <f>"{ name: """&amp;A172&amp;""", osisID: '"&amp;B172&amp;"', paratext: "&amp;IF(C172="","null","'"&amp;C172&amp;"'")&amp;", groups: "&amp;E172&amp;", aliases: "&amp;H172&amp;" },"</f>
         <v>{ name: "Mormon", osisID: 'Morm', paratext: null, groups: ['Book of Mormon', 'LDS', 'Mormon', 'Large Plates of Nephi', 'Abridgement'], aliases: ['Mmn','Morm'] },</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="173" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F173" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G173" s="5" t="str">
+      <c r="G173" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Eth']</v>
       </c>
-      <c r="H173" t="s">
+      <c r="H173" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="I173" t="str">
+      <c r="I173" s="6" t="str">
         <f>"{ name: """&amp;A173&amp;""", osisID: '"&amp;B173&amp;"', paratext: "&amp;IF(C173="","null","'"&amp;C173&amp;"'")&amp;", groups: "&amp;E173&amp;", aliases: "&amp;H173&amp;" },"</f>
         <v>{ name: "Ether", osisID: 'Eth', paratext: null, groups: ['Book of Mormon', 'LDS', 'Mormon', 'Large Plates of Nephi', 'Abridgement'], aliases: ['Eth'] },</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="174" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="F174" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G174" s="5" t="str">
+      <c r="G174" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Moro']</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H174" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="I174" t="str">
+      <c r="I174" s="6" t="str">
         <f>"{ name: """&amp;A174&amp;""", osisID: '"&amp;B174&amp;"', paratext: "&amp;IF(C174="","null","'"&amp;C174&amp;"'")&amp;", groups: "&amp;E174&amp;", aliases: "&amp;H174&amp;" },"</f>
         <v>{ name: "Moroni", osisID: 'Moro', paratext: null, groups: ['Book of Mormon', 'LDS', 'Mormon', 'Large Plates of Nephi', 'Abridgement'], aliases: ['Mni','Moro'] },</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="175" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G175" s="5" t="str">
+      <c r="G175" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Mos']</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H175" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="I175" t="str">
+      <c r="I175" s="6" t="str">
         <f>"{ name: """&amp;A175&amp;""", osisID: '"&amp;B175&amp;"', paratext: "&amp;IF(C175="","null","'"&amp;C175&amp;"'")&amp;", groups: "&amp;E175&amp;", aliases: "&amp;H175&amp;" },"</f>
         <v>{ name: "Moses", osisID: 'Mos', paratext: null, groups: ['Pearl of Great Price', 'Inspired Translation', 'Joseph Smith Translation', 'JST', 'Joseph Smith', 'LDS'], aliases: ['Mos'] },</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="176" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G176" s="5" t="str">
+      <c r="G176" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['Abr']</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H176" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="I176" t="str">
+      <c r="I176" s="6" t="str">
         <f>"{ name: """&amp;A176&amp;""", osisID: '"&amp;B176&amp;"', paratext: "&amp;IF(C176="","null","'"&amp;C176&amp;"'")&amp;", groups: "&amp;E176&amp;", aliases: "&amp;H176&amp;" },"</f>
         <v>{ name: "Abraham", osisID: 'Abr', paratext: null, groups: ['Pearl of Great Price', 'Inspired Translation', 'Joseph Smith Translation', 'JST', 'Joseph Smith', 'LDS'], aliases: ['Abr'] },</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="177" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G177" s="5" t="str">
+      <c r="G177" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['AofF']</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H177" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="I177" t="str">
+      <c r="I177" s="6" t="str">
         <f>"{ name: """&amp;A177&amp;""", osisID: '"&amp;B177&amp;"', paratext: "&amp;IF(C177="","null","'"&amp;C177&amp;"'")&amp;", groups: "&amp;E177&amp;", aliases: "&amp;H177&amp;" },"</f>
         <v>{ name: "Articles of Faith", osisID: 'AofF', paratext: null, groups: ['Pearl of Great Price', 'LDS', 'Joseph Smith'], aliases: ['AofF'] },</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="178" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F178" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G178" s="5" t="str">
+      <c r="G178" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['JSH']</v>
       </c>
-      <c r="H178" t="s">
-        <v>686</v>
-      </c>
-      <c r="I178" t="str">
+      <c r="H178" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="I178" s="6" t="str">
         <f>"{ name: """&amp;A178&amp;""", osisID: '"&amp;B178&amp;"', paratext: "&amp;IF(C178="","null","'"&amp;C178&amp;"'")&amp;", groups: "&amp;E178&amp;", aliases: "&amp;H178&amp;" },"</f>
         <v>{ name: "Joseph Smith History", osisID: 'JSH', paratext: null, groups: ['Pearl of Great Price', 'Inspired Translation', 'Joseph Smith Translation', 'JST', 'Joseph Smith', 'LDS'], aliases: ['JSH', 'Joseph Smith--History'] },</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="179" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G179" s="5" t="str">
+      <c r="G179" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['JSM']</v>
       </c>
-      <c r="H179" t="s">
-        <v>685</v>
-      </c>
-      <c r="I179" t="str">
+      <c r="H179" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="I179" s="6" t="str">
         <f>"{ name: """&amp;A179&amp;""", osisID: '"&amp;B179&amp;"', paratext: "&amp;IF(C179="","null","'"&amp;C179&amp;"'")&amp;", groups: "&amp;E179&amp;", aliases: "&amp;H179&amp;" },"</f>
         <v>{ name: "Joseph Smith Matthew", osisID: 'JSM', paratext: null, groups: ['Pearl of Great Price', 'Inspired Translation', 'Joseph Smith Translation', 'JST', 'Joseph Smith', 'LDS'], aliases: ['JSM','Joseph Smith--Matthew'] },</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="180" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="F180" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G180" s="5" t="str">
+      <c r="G180" s="7" t="str">
         <f t="shared" si="2"/>
         <v>['D&amp;C']</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H180" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="I180" t="str">
+      <c r="I180" s="6" t="str">
         <f>"{ name: """&amp;A180&amp;""", osisID: '"&amp;B180&amp;"', paratext: "&amp;IF(C180="","null","'"&amp;C180&amp;"'")&amp;", groups: "&amp;E180&amp;", aliases: "&amp;H180&amp;" },"</f>
         <v>{ name: "Doctrine &amp; Covenants", osisID: 'D&amp;C', paratext: null, groups: ['Doctrine &amp; Covenants','LDS'], aliases: ['The Doctrine &amp; Covenants','Doctrine and Covenants', 'The Doctrine and Covenants', 'D&amp;C'] },</v>
       </c>
